--- a/docs/questionnaires.xlsx
+++ b/docs/questionnaires.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\drive.irds.uwa.edu.au\SPGH-RAINEDATA-001\Data checking\Work folder Data Officer - Matt\0 WIP\Injuries and Incidents\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E31F24-F9CF-4CF2-A099-48DBAC92A368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBF5DDE-460B-4488-89C7-CE3B2EA62262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2460" yWindow="3720" windowWidth="16200" windowHeight="11325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Outline" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Harmonised" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Harmonised!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$1:$G$617</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="322">
   <si>
     <t>G201</t>
   </si>
@@ -274,12 +275,6 @@
     <t>Has your child needed to be admitted to any hospital since leaving the maternity hospital?</t>
   </si>
   <si>
-    <t>Harmonised Variable Label</t>
-  </si>
-  <si>
-    <t>Harmonised Value Label</t>
-  </si>
-  <si>
     <t>INF1</t>
   </si>
   <si>
@@ -433,9 +428,6 @@
     <t>INF6</t>
   </si>
   <si>
-    <t>Has your child had any illnesses or problems since the last follow-up at five to six years of age which required you to take him/her to a doctor (GP), hospital, or clinic?</t>
-  </si>
-  <si>
     <t>Has your child been admitted to a hospital since the last follow-up at five to six years of age?</t>
   </si>
   <si>
@@ -661,28 +653,361 @@
     <t>Base Variable</t>
   </si>
   <si>
-    <t>Variations</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>_1</t>
-  </si>
-  <si>
-    <t>_2</t>
-  </si>
-  <si>
-    <t>Different time frame</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Field Type</t>
+  </si>
+  <si>
+    <t>Field Width</t>
+  </si>
+  <si>
+    <t>Field Values</t>
+  </si>
+  <si>
+    <t>Decimals</t>
+  </si>
+  <si>
+    <t>Variable Type</t>
+  </si>
+  <si>
+    <t>Has your child had any accidents or injuries since the last follow-up at five to six years of age which required you to take him/her to a doctor (GP), hospital, or clinic?</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>ILL_N1</t>
+  </si>
+  <si>
+    <t>ILL_N2</t>
+  </si>
+  <si>
+    <t>ILL_N3</t>
+  </si>
+  <si>
+    <t>ILL_N4</t>
+  </si>
+  <si>
+    <t>ILL_N5</t>
+  </si>
+  <si>
+    <t>ILL_N6</t>
+  </si>
+  <si>
+    <t>ILL_N7</t>
+  </si>
+  <si>
+    <t>ILL_N8</t>
+  </si>
+  <si>
+    <t>ILL_N9</t>
+  </si>
+  <si>
+    <t>ILL_N10</t>
+  </si>
+  <si>
+    <t>ILL_N11</t>
+  </si>
+  <si>
+    <t>ILL_N12</t>
+  </si>
+  <si>
+    <t>ILL_N13</t>
+  </si>
+  <si>
+    <t>ILL_N14</t>
+  </si>
+  <si>
+    <t>ILL_N15</t>
+  </si>
+  <si>
+    <t>ILL_ICD9_1</t>
+  </si>
+  <si>
+    <t>ILL_ICD9_2</t>
+  </si>
+  <si>
+    <t>ILL_ICD9_3</t>
+  </si>
+  <si>
+    <t>ILL_ICD9_4</t>
+  </si>
+  <si>
+    <t>ILL_ICD9_5</t>
+  </si>
+  <si>
+    <t>ILL_ICD9_6</t>
+  </si>
+  <si>
+    <t>ILL_ICD9_7</t>
+  </si>
+  <si>
+    <t>ILL_ICD9_8</t>
+  </si>
+  <si>
+    <t>ILL_ICD9_9</t>
+  </si>
+  <si>
+    <t>ILL_ICD9_10</t>
+  </si>
+  <si>
+    <t>ILL_ICD9_11</t>
+  </si>
+  <si>
+    <t>ILL_ICD9_12</t>
+  </si>
+  <si>
+    <t>ILL_ICD9_13</t>
+  </si>
+  <si>
+    <t>ILL_ICD9_14</t>
+  </si>
+  <si>
+    <t>ILL_ICD9_15</t>
+  </si>
+  <si>
+    <t>ILL_N_1</t>
+  </si>
+  <si>
+    <t>ILL_N_2</t>
+  </si>
+  <si>
+    <t>ILL_N_3</t>
+  </si>
+  <si>
+    <t>ILL_N_4</t>
+  </si>
+  <si>
+    <t>ILL_N_5</t>
+  </si>
+  <si>
+    <t>ILL_N_6</t>
+  </si>
+  <si>
+    <t>ILL_N_7</t>
+  </si>
+  <si>
+    <t>ILL_N_8</t>
+  </si>
+  <si>
+    <t>ILL_N_9</t>
+  </si>
+  <si>
+    <t>ILL_N_10</t>
+  </si>
+  <si>
+    <t>ILL_N_11</t>
+  </si>
+  <si>
+    <t>ILL_N_12</t>
+  </si>
+  <si>
+    <t>ILL_N_13</t>
+  </si>
+  <si>
+    <t>ILL_N_14</t>
+  </si>
+  <si>
+    <t>ILL_N_15</t>
+  </si>
+  <si>
+    <t>INJ_N_1</t>
+  </si>
+  <si>
+    <t>INJ_N_2</t>
+  </si>
+  <si>
+    <t>INJ_N_3</t>
+  </si>
+  <si>
+    <t>INJ_N_4</t>
+  </si>
+  <si>
+    <t>INJ_N_5</t>
+  </si>
+  <si>
+    <t>Has your child had any accidents or injuries since his or her third birthday which required you to take him/her to a hospital, doctor or clinic?</t>
+  </si>
+  <si>
+    <t>HOSP_ICD9_1</t>
+  </si>
+  <si>
+    <t>HOSP_ICD9_2</t>
+  </si>
+  <si>
+    <t>HOSP_ICD9_3</t>
+  </si>
+  <si>
+    <t>HOSP_ICD9_4</t>
+  </si>
+  <si>
+    <t>HOSP_ICD9_5</t>
+  </si>
+  <si>
+    <t>HOSP_ICD9_6</t>
+  </si>
+  <si>
+    <t>ILL</t>
+  </si>
+  <si>
+    <t>INJ_ICD9_1</t>
+  </si>
+  <si>
+    <t>INJ_ICD9_2</t>
+  </si>
+  <si>
+    <t>INJ_ICD9_3</t>
+  </si>
+  <si>
+    <t>INJ_ICD9_4</t>
+  </si>
+  <si>
+    <t>INJ_ICD9_5</t>
+  </si>
+  <si>
+    <t>HOSP_CODE_1</t>
+  </si>
+  <si>
+    <t>HOSP_CODE_2</t>
+  </si>
+  <si>
+    <t>HOSP_CODE_3</t>
+  </si>
+  <si>
+    <t>HOSP_CODE_4</t>
+  </si>
+  <si>
+    <t>HOSP_CODE_5</t>
+  </si>
+  <si>
+    <t>HOSP_CODE_6</t>
+  </si>
+  <si>
+    <t>HOSP_N_1</t>
+  </si>
+  <si>
+    <t>HOSP_N_2</t>
+  </si>
+  <si>
+    <t>HOSP_N_3</t>
+  </si>
+  <si>
+    <t>HOSP_N_4</t>
+  </si>
+  <si>
+    <t>HOSP_N_5</t>
+  </si>
+  <si>
+    <t>HOSP_N_6</t>
+  </si>
+  <si>
+    <t>HOSP_CODE_7</t>
+  </si>
+  <si>
+    <t>HOSP_CODE_8</t>
+  </si>
+  <si>
+    <t>HOSP_DAT_1</t>
+  </si>
+  <si>
+    <t>HOSP_DAT_2</t>
+  </si>
+  <si>
+    <t>HOSP_DAT_3</t>
+  </si>
+  <si>
+    <t>HOSP_DAT_4</t>
+  </si>
+  <si>
+    <t>HOSP_DAT_5</t>
+  </si>
+  <si>
+    <t>HOSP_DAT_6</t>
+  </si>
+  <si>
+    <t>HOSP_DAT_7</t>
+  </si>
+  <si>
+    <t>HOSP_DAT_8</t>
+  </si>
+  <si>
+    <t>HOSP_N_7</t>
+  </si>
+  <si>
+    <t>HOSP_N_8</t>
+  </si>
+  <si>
+    <t>HOSP_ICD9_7</t>
+  </si>
+  <si>
+    <t>HOSP_ICD9_8</t>
+  </si>
+  <si>
+    <t>INJ_N_6</t>
+  </si>
+  <si>
+    <t>INJ_ICD9_6</t>
+  </si>
+  <si>
+    <t>HOSP_DAT_9</t>
+  </si>
+  <si>
+    <t>HOSP_CODE_9</t>
+  </si>
+  <si>
+    <t>HOSP_ICD9_9</t>
+  </si>
+  <si>
+    <t>INJ_ICD9E_1</t>
+  </si>
+  <si>
+    <t>INJ_ICD9E_2</t>
+  </si>
+  <si>
+    <t>INJ_ICD9E_3</t>
+  </si>
+  <si>
+    <t>INJ_ICD9E_4</t>
+  </si>
+  <si>
+    <t>INJ_ICD9E_5</t>
+  </si>
+  <si>
+    <t>ILL_N</t>
+  </si>
+  <si>
+    <t>ILL_ICD9</t>
+  </si>
+  <si>
+    <t>INJ_N</t>
+  </si>
+  <si>
+    <t>INJ_ICD9</t>
+  </si>
+  <si>
+    <t>HOSP_CODE</t>
+  </si>
+  <si>
+    <t>HOSP_ICD9</t>
+  </si>
+  <si>
+    <t>HOSP_N</t>
+  </si>
+  <si>
+    <t>HOSP_DAT</t>
+  </si>
+  <si>
+    <t>INJ_ICD9E</t>
+  </si>
+  <si>
+    <t>Had illness requiring a visit to hospital, doctor, or clinic</t>
+  </si>
+  <si>
+    <t>ICD9 code for illness</t>
+  </si>
+  <si>
+    <t>Number of visits to hospital, doctor, or clinic for illness</t>
   </si>
 </sst>
 </file>
@@ -772,7 +1097,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -787,6 +1112,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60% - Accent1" xfId="1" builtinId="32"/>
@@ -1168,19 +1494,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K000000 UWA Document (Public)&amp;1#_x000D_</oddHeader>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 This is a UWA Official document authorised or intended for public access.</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2AA487-B4BC-419E-AB09-1B94703EE3B6}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:G617"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C526" sqref="C526"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D243" sqref="D243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,7 +1520,7 @@
     <col min="3" max="3" width="102.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="70.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="82.28515625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1227,6 +1557,9 @@
       <c r="C2" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="D2" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1235,6 +1568,9 @@
       <c r="B3" t="s">
         <v>27</v>
       </c>
+      <c r="D3" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1243,6 +1579,9 @@
       <c r="B4" t="s">
         <v>28</v>
       </c>
+      <c r="D4" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1251,6 +1590,9 @@
       <c r="B5" t="s">
         <v>29</v>
       </c>
+      <c r="D5" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1259,6 +1601,9 @@
       <c r="B6" t="s">
         <v>30</v>
       </c>
+      <c r="D6" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1267,6 +1612,9 @@
       <c r="B7" t="s">
         <v>31</v>
       </c>
+      <c r="D7" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1275,6 +1623,9 @@
       <c r="B8" t="s">
         <v>32</v>
       </c>
+      <c r="D8" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1283,6 +1634,9 @@
       <c r="B9" t="s">
         <v>33</v>
       </c>
+      <c r="D9" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1291,6 +1645,9 @@
       <c r="B10" t="s">
         <v>34</v>
       </c>
+      <c r="D10" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1299,6 +1656,9 @@
       <c r="B11" t="s">
         <v>35</v>
       </c>
+      <c r="D11" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1307,6 +1667,9 @@
       <c r="B12" t="s">
         <v>36</v>
       </c>
+      <c r="D12" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1315,13 +1678,16 @@
       <c r="B13" t="s">
         <v>37</v>
       </c>
+      <c r="D13" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1331,6 +1697,9 @@
       <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="D15" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -1339,163 +1708,220 @@
       <c r="B16" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="D28" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="D29" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="D30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -1503,7 +1929,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -1513,4927 +1939,6255 @@
       <c r="C37" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="D82" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="D83" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D104" s="1"/>
-    </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D105" s="1"/>
-    </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D106" s="1"/>
-    </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D107" s="1"/>
-    </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D108" s="1"/>
-    </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D109" s="1"/>
-    </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D110" s="1"/>
-    </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D111" s="1"/>
-    </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D112" s="1"/>
-    </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D125" s="1"/>
-    </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D126" s="1"/>
-    </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D127" s="1"/>
-    </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D128" s="1"/>
-    </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D129" s="1"/>
-    </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D129" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D130" s="1"/>
-    </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D131" s="1"/>
-    </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D132" s="1"/>
-    </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D132" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D133" s="1"/>
-    </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D134" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="D137" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D138" s="1"/>
-    </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="D138" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D139" s="1"/>
-    </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="D139" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D140" s="1"/>
-    </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D141" s="1"/>
-    </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D142" s="1"/>
-    </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D143" s="1"/>
-    </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D144" s="1"/>
-    </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D145" s="1"/>
-    </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D146" s="1"/>
-    </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D147" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D148" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D151" s="1"/>
-    </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D151" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D152" s="1"/>
-    </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D153" s="1"/>
-    </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D153" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D154" s="1"/>
-    </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D154" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D155" s="1"/>
-    </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D155" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D156" s="1"/>
-    </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D157" s="1"/>
-    </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D157" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D158" s="1"/>
-    </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D158" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D159" s="1"/>
-    </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D159" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D160" s="1"/>
-    </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D161" s="1"/>
-    </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D162" s="1"/>
-    </row>
-    <row r="163" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D162" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D163" s="1"/>
-    </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D164" s="1"/>
+      <c r="D164" t="s">
+        <v>241</v>
+      </c>
       <c r="G164" s="1"/>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D165" s="1"/>
+      <c r="D165" t="s">
+        <v>242</v>
+      </c>
       <c r="G165" s="1"/>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D166" s="1"/>
-    </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D167" s="1"/>
-    </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D169" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D171" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D172" s="1"/>
-    </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D172" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D173" s="1"/>
-    </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D173" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D174" s="1"/>
-    </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D174" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D175" s="1"/>
-    </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D175" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B176" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D176" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D177" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D176" s="1"/>
-    </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D177" s="1"/>
-    </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D178" s="1"/>
-    </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D178" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D179" s="1"/>
-    </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D179" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D180" s="1"/>
-    </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D180" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D181" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D182" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D183" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D184" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D185" s="1"/>
-    </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D185" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D186" s="1"/>
-    </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D186" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D187" s="1"/>
-    </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D187" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D188" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D189" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D190" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B191" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D191" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D192" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D192" s="1"/>
-    </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D193" s="1"/>
-    </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D193" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D194" s="1"/>
-    </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D195" s="1"/>
-    </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B196" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D196" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D197" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D196" s="1"/>
-    </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B197" s="1" t="s">
+      <c r="D198" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D197" s="1"/>
-    </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D198" s="1"/>
-    </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D199" s="1"/>
-    </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D199" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D200" s="1"/>
-    </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D200" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D201" s="1"/>
-    </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D201" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D202" s="1"/>
-    </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D202" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D203" s="1"/>
+      <c r="D203" t="s">
+        <v>272</v>
+      </c>
       <c r="F203" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D204" s="1"/>
     </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D205" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="G205" s="1"/>
     </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D206" s="1"/>
+      <c r="D206" t="s">
+        <v>274</v>
+      </c>
       <c r="G206" s="1"/>
     </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D207" s="1"/>
-    </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D207" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D208" s="1"/>
-    </row>
-    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D208" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D209" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D210" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D211" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B212" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D212" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D213" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B213" s="1" t="s">
+      <c r="D214" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D213" s="1"/>
-    </row>
-    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B214" s="1" t="s">
+      <c r="D215" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D214" s="1"/>
-    </row>
-    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B215" s="1" t="s">
+      <c r="D216" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D215" s="1"/>
-    </row>
-    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B216" s="1" t="s">
+      <c r="D217" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D216" s="1"/>
-    </row>
-    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B217" s="1" t="s">
+      <c r="D218" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D217" s="1"/>
-    </row>
-    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B218" s="1" t="s">
+      <c r="D219" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D218" s="1"/>
-    </row>
-    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B219" s="1" t="s">
+      <c r="D220" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D219" s="1"/>
-    </row>
-    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D220" s="1"/>
-    </row>
-    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D221" s="1"/>
-    </row>
-    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D221" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D222" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D223" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D224" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D225" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D226" s="1"/>
-    </row>
-    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D226" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D227" s="1"/>
-    </row>
-    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D227" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D228" s="1"/>
-    </row>
-    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="D228" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D229" s="1"/>
-    </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="D229" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D230" s="1"/>
-    </row>
-    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D230" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D231" s="1"/>
-    </row>
-    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D231" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D232" s="1"/>
-    </row>
-    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D232" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D233" s="1"/>
-    </row>
-    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D233" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D234" s="1"/>
-    </row>
-    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D234" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D235" s="1"/>
-    </row>
-    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D235" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B236" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D236" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D237" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B238" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D236" s="1"/>
-    </row>
-    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B237" s="1" t="s">
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B239" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D237" s="1"/>
-    </row>
-    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B238" s="1" t="s">
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E242" s="1"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B243" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D238" s="1"/>
-    </row>
-    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B239" s="1" t="s">
+      <c r="D243" s="1"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B246" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D241" s="1"/>
-    </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D242" s="1"/>
-      <c r="E242" s="1"/>
-    </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D243" s="1"/>
-    </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B244" s="1" t="s">
+      <c r="D246" s="1"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B247" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B245" s="1" t="s">
+      <c r="D247" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E247" s="1"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B248" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D246" s="1"/>
-    </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D247" s="1"/>
-      <c r="E247" s="1"/>
-    </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D248" s="1"/>
-    </row>
-    <row r="249" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D248" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>5</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>5</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="D250" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>5</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="D251" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>5</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="D252" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>5</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="D253" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>5</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="D254" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>5</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="D255" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>5</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D256" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>5</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D257" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>5</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D258" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>5</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D259" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>5</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D260" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>5</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D261" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>5</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>5</v>
       </c>
       <c r="B263" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D263" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>5</v>
       </c>
       <c r="B264" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D264" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>5</v>
       </c>
       <c r="B265" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D265" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>5</v>
       </c>
       <c r="B266" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D266" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>5</v>
       </c>
       <c r="B267" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D267" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>5</v>
       </c>
       <c r="B268" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D268" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>5</v>
       </c>
       <c r="B269" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="D269" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>5</v>
       </c>
       <c r="B270" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="D270" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>5</v>
       </c>
       <c r="B271" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="D271" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>5</v>
       </c>
       <c r="B272" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="D272" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>5</v>
       </c>
       <c r="B273" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="D273" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>5</v>
       </c>
       <c r="B274" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="D274" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>5</v>
       </c>
       <c r="B275" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D275" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>5</v>
       </c>
       <c r="B276" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D276" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>5</v>
       </c>
       <c r="B277" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D277" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>5</v>
       </c>
       <c r="B278" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D278" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>5</v>
       </c>
       <c r="B279" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D279" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>5</v>
       </c>
       <c r="B280" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D280" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>5</v>
       </c>
       <c r="B281" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D281" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>5</v>
       </c>
       <c r="B282" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D282" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>5</v>
       </c>
       <c r="B283" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D283" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>5</v>
       </c>
       <c r="B284" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D284" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>5</v>
       </c>
       <c r="B285" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D285" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>5</v>
       </c>
       <c r="B286" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D286" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>6</v>
       </c>
       <c r="B287" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>6</v>
       </c>
       <c r="B288" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D288" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>6</v>
       </c>
       <c r="B289" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D289" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>6</v>
       </c>
       <c r="B290" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D290" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>6</v>
       </c>
       <c r="B291" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D291" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>6</v>
       </c>
       <c r="B292" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="D292" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>6</v>
       </c>
       <c r="B293" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="D293" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>6</v>
       </c>
       <c r="B294" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="D294" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>6</v>
       </c>
       <c r="B295" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="D295" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>6</v>
       </c>
       <c r="B296" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>6</v>
       </c>
       <c r="B297" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="D297" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>6</v>
       </c>
       <c r="B298" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="D298" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>6</v>
       </c>
       <c r="B299" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="D299" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>6</v>
       </c>
       <c r="B300" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="D300" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>6</v>
       </c>
       <c r="B301" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="D301" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>6</v>
       </c>
       <c r="B302" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D302" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>6</v>
       </c>
       <c r="B303" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D303" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>6</v>
       </c>
       <c r="B304" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D304" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>6</v>
       </c>
       <c r="B305" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D305" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>6</v>
       </c>
       <c r="B306" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D306" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>6</v>
       </c>
       <c r="B307" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D307" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>6</v>
       </c>
       <c r="B308" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D308" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>6</v>
       </c>
       <c r="B309" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D309" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>6</v>
       </c>
       <c r="B310" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D310" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>6</v>
       </c>
       <c r="B311" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D311" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>6</v>
       </c>
       <c r="B312" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D312" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>6</v>
       </c>
       <c r="B313" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D313" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>18</v>
       </c>
       <c r="B314" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>18</v>
       </c>
       <c r="B315" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D315" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>18</v>
       </c>
       <c r="B316" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D316" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>18</v>
       </c>
       <c r="B317" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D317" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>18</v>
       </c>
       <c r="B318" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D318" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>18</v>
       </c>
       <c r="B319" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D319" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>18</v>
       </c>
       <c r="B320" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D320" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>18</v>
       </c>
       <c r="B321" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="D321" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>18</v>
       </c>
       <c r="B322" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="D322" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>18</v>
       </c>
       <c r="B323" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="D323" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>18</v>
       </c>
       <c r="B324" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="D324" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>18</v>
       </c>
       <c r="B325" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="D325" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>18</v>
       </c>
       <c r="B326" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="D326" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>18</v>
       </c>
       <c r="B327" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>18</v>
       </c>
       <c r="B328" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D328" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>18</v>
       </c>
       <c r="B329" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D329" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>18</v>
       </c>
       <c r="B330" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D330" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>18</v>
       </c>
       <c r="B331" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D331" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>18</v>
       </c>
       <c r="B332" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D332" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>18</v>
       </c>
       <c r="B333" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D333" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>18</v>
       </c>
       <c r="B334" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="D334" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>18</v>
       </c>
       <c r="B335" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="D335" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>18</v>
       </c>
       <c r="B336" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="D336" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>18</v>
       </c>
       <c r="B337" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="D337" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>18</v>
       </c>
       <c r="B338" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="D338" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>18</v>
       </c>
       <c r="B339" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="D339" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>18</v>
       </c>
       <c r="B340" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="D340" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>18</v>
       </c>
       <c r="B341" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="D341" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>18</v>
       </c>
       <c r="B342" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="D342" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>18</v>
       </c>
       <c r="B343" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="D343" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>18</v>
       </c>
       <c r="B344" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D344" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>18</v>
       </c>
       <c r="B345" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D345" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>18</v>
       </c>
       <c r="B346" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D346" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>18</v>
       </c>
       <c r="B347" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D347" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>18</v>
       </c>
       <c r="B348" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D348" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>18</v>
       </c>
       <c r="B349" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D349" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>18</v>
       </c>
       <c r="B350" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="D350" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>18</v>
       </c>
       <c r="B351" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="D351" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>7</v>
       </c>
       <c r="B352" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>7</v>
       </c>
       <c r="B353" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="D353" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>7</v>
       </c>
       <c r="B354" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="D354" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>7</v>
       </c>
       <c r="B355" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="D355" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>7</v>
       </c>
       <c r="B356" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="D356" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>7</v>
       </c>
       <c r="B357" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="D357" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>7</v>
       </c>
       <c r="B358" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D358" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>7</v>
       </c>
       <c r="B359" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D359" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>7</v>
       </c>
       <c r="B360" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D360" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>7</v>
       </c>
       <c r="B361" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D361" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>7</v>
       </c>
       <c r="B362" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D362" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>7</v>
       </c>
       <c r="B363" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>7</v>
       </c>
       <c r="B364" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="D364" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>7</v>
       </c>
       <c r="B365" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D365" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>7</v>
       </c>
       <c r="B366" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D366" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>7</v>
       </c>
       <c r="B367" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="D367" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>7</v>
       </c>
       <c r="B368" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="369" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D368" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>7</v>
       </c>
       <c r="B369" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="370" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D369" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>7</v>
       </c>
       <c r="B370" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="D370" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>7</v>
       </c>
       <c r="B371" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="372" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D371" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>7</v>
       </c>
       <c r="B372" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="373" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D372" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>7</v>
       </c>
       <c r="B373" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="D373" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>7</v>
       </c>
       <c r="B374" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="375" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D374" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>7</v>
       </c>
       <c r="B375" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="376" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D375" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>7</v>
       </c>
       <c r="B376" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="D376" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>7</v>
       </c>
       <c r="B377" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="378" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D377" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>7</v>
       </c>
       <c r="B378" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="379" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D378" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>7</v>
       </c>
       <c r="B379" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="D379" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>7</v>
       </c>
       <c r="B380" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="381" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D380" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>7</v>
       </c>
       <c r="B381" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="382" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D381" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>7</v>
       </c>
       <c r="B382" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="D382" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>7</v>
       </c>
       <c r="B383" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="D383" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>7</v>
       </c>
       <c r="B384" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="D384" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>7</v>
       </c>
       <c r="B385" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="D385" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>7</v>
       </c>
       <c r="B386" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="D386" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>7</v>
       </c>
       <c r="B387" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="D387" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>7</v>
       </c>
       <c r="B388" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="D388" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>7</v>
       </c>
       <c r="B389" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="D389" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>7</v>
       </c>
       <c r="B390" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="D390" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>7</v>
       </c>
       <c r="B391" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>7</v>
       </c>
       <c r="B392" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>7</v>
       </c>
       <c r="B393" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>17</v>
       </c>
       <c r="B394" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>17</v>
       </c>
       <c r="B395" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="D395" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>17</v>
       </c>
       <c r="B396" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="D396" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>17</v>
       </c>
       <c r="B397" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="D397" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>17</v>
       </c>
       <c r="B398" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="D398" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>17</v>
       </c>
       <c r="B399" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="D399" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>17</v>
       </c>
       <c r="B400" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="401" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D400" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>17</v>
       </c>
       <c r="B401" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="402" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D401" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>17</v>
       </c>
       <c r="B402" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="403" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D402" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>17</v>
       </c>
       <c r="B403" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="404" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D403" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>17</v>
       </c>
       <c r="B404" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="405" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D404" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>17</v>
       </c>
       <c r="B405" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>17</v>
       </c>
       <c r="B406" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="D406" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>17</v>
       </c>
       <c r="B407" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="408" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D407" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>17</v>
       </c>
       <c r="B408" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="409" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D408" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>17</v>
       </c>
       <c r="B409" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="D409" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>17</v>
       </c>
       <c r="B410" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="411" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D410" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>17</v>
       </c>
       <c r="B411" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="412" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D411" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>17</v>
       </c>
       <c r="B412" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="D412" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>17</v>
       </c>
       <c r="B413" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="414" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D413" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>17</v>
       </c>
       <c r="B414" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="415" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D414" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>17</v>
       </c>
       <c r="B415" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="D415" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>17</v>
       </c>
       <c r="B416" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="417" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D416" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>17</v>
       </c>
       <c r="B417" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="418" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D417" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>17</v>
       </c>
       <c r="B418" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="D418" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>17</v>
       </c>
       <c r="B419" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="420" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D419" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>17</v>
       </c>
       <c r="B420" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="421" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D420" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>17</v>
       </c>
       <c r="B421" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="D421" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>17</v>
       </c>
       <c r="B422" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="423" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D422" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>17</v>
       </c>
       <c r="B423" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="424" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D423" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>17</v>
       </c>
       <c r="B424" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="D424" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>17</v>
       </c>
       <c r="B425" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="D425" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>17</v>
       </c>
       <c r="B426" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="D426" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>17</v>
       </c>
       <c r="B427" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="D427" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>17</v>
       </c>
       <c r="B428" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="D428" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>17</v>
       </c>
       <c r="B429" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="D429" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>17</v>
       </c>
       <c r="B430" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="D430" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>17</v>
       </c>
       <c r="B431" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="D431" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>17</v>
       </c>
       <c r="B432" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="D432" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>17</v>
       </c>
       <c r="B433" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>17</v>
       </c>
       <c r="B434" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>17</v>
       </c>
       <c r="B435" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>8</v>
       </c>
       <c r="B436" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="D436" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>8</v>
       </c>
       <c r="B437" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="D437" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>8</v>
       </c>
       <c r="B438" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="D438" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>8</v>
       </c>
       <c r="B439" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="D439" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>8</v>
       </c>
       <c r="B440" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="441" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="D440" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>8</v>
       </c>
       <c r="B441" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="D441" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>8</v>
       </c>
       <c r="B442" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="443" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D442" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>8</v>
       </c>
       <c r="B443" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="444" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D443" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>8</v>
       </c>
       <c r="B444" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="445" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D444" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>8</v>
       </c>
       <c r="B445" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="446" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D445" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>8</v>
       </c>
       <c r="B446" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="447" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D446" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>8</v>
       </c>
       <c r="B447" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="448" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="D447" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>8</v>
       </c>
       <c r="B448" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="D448" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>8</v>
       </c>
       <c r="B449" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="450" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D449" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>8</v>
       </c>
       <c r="B450" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="451" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D450" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>8</v>
       </c>
       <c r="B451" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="D451" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>8</v>
       </c>
       <c r="B452" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="453" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D452" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>8</v>
       </c>
       <c r="B453" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="454" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D453" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>8</v>
       </c>
       <c r="B454" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="D454" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>8</v>
       </c>
       <c r="B455" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="456" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D455" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>8</v>
       </c>
       <c r="B456" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="457" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D456" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>8</v>
       </c>
       <c r="B457" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="D457" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>8</v>
       </c>
       <c r="B458" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="459" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D458" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>8</v>
       </c>
       <c r="B459" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="460" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D459" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>8</v>
       </c>
       <c r="B460" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="D460" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>8</v>
       </c>
       <c r="B461" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="462" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D461" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>8</v>
       </c>
       <c r="B462" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="463" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D462" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>9</v>
       </c>
       <c r="B463" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="D463" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>9</v>
       </c>
       <c r="B464" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="D464" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>9</v>
       </c>
       <c r="B465" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="D465" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>9</v>
       </c>
       <c r="B466" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="D466" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>9</v>
       </c>
       <c r="B467" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="D467" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>9</v>
       </c>
       <c r="B468" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="D468" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>9</v>
       </c>
       <c r="B469" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="470" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D469" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>9</v>
       </c>
       <c r="B470" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="471" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D470" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>9</v>
       </c>
       <c r="B471" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="472" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D471" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>9</v>
       </c>
       <c r="B472" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="473" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D472" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>9</v>
       </c>
       <c r="B473" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="474" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D473" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>9</v>
       </c>
       <c r="B474" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="D474" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>9</v>
       </c>
       <c r="B475" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="D475" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>9</v>
       </c>
       <c r="B476" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="D476" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>9</v>
       </c>
       <c r="B477" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="D477" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>9</v>
       </c>
       <c r="B478" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="D478" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>9</v>
       </c>
       <c r="B479" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="D479" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>9</v>
       </c>
       <c r="B480" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="D480" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>9</v>
       </c>
       <c r="B481" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="482" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D481" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>9</v>
       </c>
       <c r="B482" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="483" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D482" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>9</v>
       </c>
       <c r="B483" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="D483" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>9</v>
       </c>
       <c r="B484" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="485" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D484" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>9</v>
       </c>
       <c r="B485" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="486" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D485" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>9</v>
       </c>
       <c r="B486" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="487" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="D486" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>9</v>
       </c>
       <c r="B487" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="488" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D487" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>9</v>
       </c>
       <c r="B488" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="489" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D488" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>9</v>
       </c>
       <c r="B489" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="490" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="D489" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>9</v>
       </c>
       <c r="B490" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="491" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D490" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>9</v>
       </c>
       <c r="B491" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="492" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D491" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>9</v>
       </c>
       <c r="B492" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="493" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="D492" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>9</v>
       </c>
       <c r="B493" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="494" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D493" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>9</v>
       </c>
       <c r="B494" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="495" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D494" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>10</v>
       </c>
       <c r="B495" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="496" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>10</v>
       </c>
       <c r="B496" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>10</v>
       </c>
       <c r="B497" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>10</v>
       </c>
       <c r="B498" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>10</v>
       </c>
       <c r="B499" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>10</v>
       </c>
       <c r="B500" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="501" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>10</v>
       </c>
       <c r="B501" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="502" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>10</v>
       </c>
       <c r="B502" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="503" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>10</v>
       </c>
       <c r="B503" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="504" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>10</v>
       </c>
       <c r="B504" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="505" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>10</v>
       </c>
       <c r="B505" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="506" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>10</v>
       </c>
       <c r="B506" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>10</v>
       </c>
       <c r="B507" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="508" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>10</v>
       </c>
       <c r="B508" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="509" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>10</v>
       </c>
       <c r="B509" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="510" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>10</v>
       </c>
       <c r="B510" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="511" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>10</v>
       </c>
       <c r="B511" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="512" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>10</v>
       </c>
       <c r="B512" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>10</v>
       </c>
       <c r="B513" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>10</v>
       </c>
       <c r="B514" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>10</v>
       </c>
       <c r="B515" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>10</v>
       </c>
       <c r="B516" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>10</v>
       </c>
       <c r="B517" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>10</v>
       </c>
       <c r="B518" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>10</v>
       </c>
       <c r="B519" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>10</v>
       </c>
       <c r="B520" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>10</v>
       </c>
       <c r="B521" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>10</v>
       </c>
       <c r="B522" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>10</v>
       </c>
       <c r="B523" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>10</v>
       </c>
       <c r="B524" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="525" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>10</v>
       </c>
       <c r="B525" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>10</v>
       </c>
       <c r="B526" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>10</v>
       </c>
       <c r="B527" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>10</v>
       </c>
       <c r="B528" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>11</v>
       </c>
       <c r="B529" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>11</v>
       </c>
       <c r="B530" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="531" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>11</v>
       </c>
       <c r="B531" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="532" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>11</v>
       </c>
       <c r="B532" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="533" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>11</v>
       </c>
       <c r="B533" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="534" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>11</v>
       </c>
       <c r="B534" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="535" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>11</v>
       </c>
       <c r="B535" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="536" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>11</v>
       </c>
       <c r="B536" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="537" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>11</v>
       </c>
       <c r="B537" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="538" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>11</v>
       </c>
       <c r="B538" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="539" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>11</v>
       </c>
       <c r="B539" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="540" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>11</v>
       </c>
       <c r="B540" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="541" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>11</v>
       </c>
       <c r="B541" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="542" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>11</v>
       </c>
       <c r="B542" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>11</v>
       </c>
       <c r="B543" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="544" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>11</v>
       </c>
       <c r="B544" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="545" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>11</v>
       </c>
       <c r="B545" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="546" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>11</v>
       </c>
       <c r="B546" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="547" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>11</v>
       </c>
       <c r="B547" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="548" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>11</v>
       </c>
       <c r="B548" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>11</v>
       </c>
       <c r="B549" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="550" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>11</v>
       </c>
       <c r="B550" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>11</v>
       </c>
       <c r="B551" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>11</v>
       </c>
       <c r="B552" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="553" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>11</v>
       </c>
       <c r="B553" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="554" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>11</v>
       </c>
       <c r="B554" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="555" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>11</v>
       </c>
       <c r="B555" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="556" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>11</v>
       </c>
       <c r="B556" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="557" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>11</v>
       </c>
       <c r="B557" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="558" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>11</v>
       </c>
       <c r="B558" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="559" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>11</v>
       </c>
       <c r="B559" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="560" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>11</v>
       </c>
       <c r="B560" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="561" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>11</v>
       </c>
       <c r="B561" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="562" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>11</v>
       </c>
       <c r="B562" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="563" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>11</v>
       </c>
       <c r="B563" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="564" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>11</v>
       </c>
       <c r="B564" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="565" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>11</v>
       </c>
       <c r="B565" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="566" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>11</v>
       </c>
       <c r="B566" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="567" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>11</v>
       </c>
       <c r="B567" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="568" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>11</v>
       </c>
       <c r="B568" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="569" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>11</v>
       </c>
       <c r="B569" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="570" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>11</v>
       </c>
       <c r="B570" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="571" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>11</v>
       </c>
       <c r="B571" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="572" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>11</v>
       </c>
       <c r="B572" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="573" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>11</v>
       </c>
       <c r="B573" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="574" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>11</v>
       </c>
       <c r="B574" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="575" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>11</v>
       </c>
       <c r="B575" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="576" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>12</v>
       </c>
       <c r="B576" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="577" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>12</v>
       </c>
       <c r="B577" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="578" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>12</v>
       </c>
       <c r="B578" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="579" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>12</v>
       </c>
       <c r="B579" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="580" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>12</v>
       </c>
       <c r="B580" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="581" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>12</v>
       </c>
       <c r="B581" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="582" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>12</v>
       </c>
       <c r="B582" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="583" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>12</v>
       </c>
       <c r="B583" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="584" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>12</v>
       </c>
       <c r="B584" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="585" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>12</v>
       </c>
       <c r="B585" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="586" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>12</v>
       </c>
       <c r="B586" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="587" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>12</v>
       </c>
       <c r="B587" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="588" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>12</v>
       </c>
       <c r="B588" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="589" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>12</v>
       </c>
       <c r="B589" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="590" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>12</v>
       </c>
       <c r="B590" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="591" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>12</v>
       </c>
       <c r="B591" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="592" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>12</v>
       </c>
       <c r="B592" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="593" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>12</v>
       </c>
       <c r="B593" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="594" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>12</v>
       </c>
       <c r="B594" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="595" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>12</v>
       </c>
       <c r="B595" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="596" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>12</v>
       </c>
       <c r="B596" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="597" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>12</v>
       </c>
       <c r="B597" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="598" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>12</v>
       </c>
       <c r="B598" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="599" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>12</v>
       </c>
       <c r="B599" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="600" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>12</v>
       </c>
       <c r="B600" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="601" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>12</v>
       </c>
       <c r="B601" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="602" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>12</v>
       </c>
       <c r="B602" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="603" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>12</v>
       </c>
       <c r="B603" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="604" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>12</v>
       </c>
       <c r="B604" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="605" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>12</v>
       </c>
       <c r="B605" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="606" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>12</v>
       </c>
       <c r="B606" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="607" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>12</v>
       </c>
       <c r="B607" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="608" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>12</v>
       </c>
       <c r="B608" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="609" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>12</v>
       </c>
       <c r="B609" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="610" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>12</v>
       </c>
       <c r="B610" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="611" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>12</v>
       </c>
       <c r="B611" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="612" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>12</v>
       </c>
       <c r="B612" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="613" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>12</v>
       </c>
       <c r="B613" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="614" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>12</v>
       </c>
       <c r="B614" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="615" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>12</v>
       </c>
       <c r="B615" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="616" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>12</v>
       </c>
       <c r="B616" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="617" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>12</v>
       </c>
       <c r="B617" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G617" xr:uid="{1B2AA487-B4BC-419E-AB09-1B94703EE3B6}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="G201"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G617" xr:uid="{1B2AA487-B4BC-419E-AB09-1B94703EE3B6}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K000000 UWA Document (Public)&amp;1#_x000D_</oddHeader>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 This is a UWA Official document authorised or intended for public access.</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7650B7-DDE2-4EF7-A90B-AC356386127C}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.28515625" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="63.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="B1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" s="10" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>213</v>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>310</v>
+      </c>
+      <c r="B11" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H1" xr:uid="{3F7650B7-DDE2-4EF7-A90B-AC356386127C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H21">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K000000 UWA Document (Public)&amp;1#_x000D_</oddHeader>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 This is a UWA Official document authorised or intended for public access.</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/docs/questionnaires.xlsx
+++ b/docs/questionnaires.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\drive.irds.uwa.edu.au\SPGH-RAINEDATA-001\Data checking\Work folder Data Officer - Matt\0 WIP\Injuries and Incidents\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBF5DDE-460B-4488-89C7-CE3B2EA62262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577E7B71-A96F-4F1C-BE2F-69A4D47560BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Harmonised" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Harmonised!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Harmonised!$A$1:$H$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$1:$G$617</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="333">
   <si>
     <t>G201</t>
   </si>
@@ -677,51 +677,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>ILL_N1</t>
-  </si>
-  <si>
-    <t>ILL_N2</t>
-  </si>
-  <si>
-    <t>ILL_N3</t>
-  </si>
-  <si>
-    <t>ILL_N4</t>
-  </si>
-  <si>
-    <t>ILL_N5</t>
-  </si>
-  <si>
-    <t>ILL_N6</t>
-  </si>
-  <si>
-    <t>ILL_N7</t>
-  </si>
-  <si>
-    <t>ILL_N8</t>
-  </si>
-  <si>
-    <t>ILL_N9</t>
-  </si>
-  <si>
-    <t>ILL_N10</t>
-  </si>
-  <si>
-    <t>ILL_N11</t>
-  </si>
-  <si>
-    <t>ILL_N12</t>
-  </si>
-  <si>
-    <t>ILL_N13</t>
-  </si>
-  <si>
-    <t>ILL_N14</t>
-  </si>
-  <si>
-    <t>ILL_N15</t>
-  </si>
-  <si>
     <t>ILL_ICD9_1</t>
   </si>
   <si>
@@ -998,16 +953,94 @@
     <t>HOSP_DAT</t>
   </si>
   <si>
-    <t>INJ_ICD9E</t>
-  </si>
-  <si>
-    <t>Had illness requiring a visit to hospital, doctor, or clinic</t>
-  </si>
-  <si>
-    <t>ICD9 code for illness</t>
-  </si>
-  <si>
     <t>Number of visits to hospital, doctor, or clinic for illness</t>
+  </si>
+  <si>
+    <t>Number of visits to hospital, doctor, or clinic for injury</t>
+  </si>
+  <si>
+    <t>ICD-9 code for illness</t>
+  </si>
+  <si>
+    <t>ICD-9 code for injury</t>
+  </si>
+  <si>
+    <t>INJ_ICD9_SUP</t>
+  </si>
+  <si>
+    <t>ICD-9 supplementary classification (E and V codes) for injury</t>
+  </si>
+  <si>
+    <t>Illness requiring a visit to hospital, doctor, or clinic since last follow-up</t>
+  </si>
+  <si>
+    <t>Admitted to hospital since last follow-up</t>
+  </si>
+  <si>
+    <t>Hospital code</t>
+  </si>
+  <si>
+    <t>Date of hospital admission</t>
+  </si>
+  <si>
+    <t>ICD-9 code for hospital admission</t>
+  </si>
+  <si>
+    <t>Number of visits to hospital</t>
+  </si>
+  <si>
+    <t>Injury requiring a visit to hospital, doctor, or clinic since last follow-up</t>
+  </si>
+  <si>
+    <t>Ever had otitis media</t>
+  </si>
+  <si>
+    <t>Number of times had otitis media</t>
+  </si>
+  <si>
+    <t>Ever had glue ear</t>
+  </si>
+  <si>
+    <t>Ever had convulsions or seizures</t>
+  </si>
+  <si>
+    <t>Number of times had convulsions or seizures</t>
+  </si>
+  <si>
+    <t>Ever had urine infections</t>
+  </si>
+  <si>
+    <t>Number of times had urine infections</t>
+  </si>
+  <si>
+    <t>-99="Missing";0="No";1="Yes"</t>
+  </si>
+  <si>
+    <t>-99="Missing";-88="N/A"</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Nominal</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>-99="Missing";-88="N/A";0="Same visit as previous admission"</t>
+  </si>
+  <si>
+    <t>-99="Missing";-88="N/A";0="Same visit as previous illness"</t>
+  </si>
+  <si>
+    <t>-99="Missing";-88="N/A";0="Same visit as previous injury"</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1113,6 +1146,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60% - Accent1" xfId="1" builtinId="32"/>
@@ -1394,6 +1428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D065E215-8030-45F4-82EE-17557E2BF132}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1503,14 +1538,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2AA487-B4BC-419E-AB09-1B94703EE3B6}">
-  <sheetPr>
+  <sheetPr codeName="Sheet2" filterMode="1">
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:G617"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D243" sqref="D243"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1547,7 +1582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1558,10 +1593,10 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1569,10 +1604,10 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1580,10 +1615,10 @@
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1591,10 +1626,10 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1602,10 +1637,10 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1613,10 +1648,10 @@
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1624,10 +1659,10 @@
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1635,10 +1670,10 @@
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1646,10 +1681,10 @@
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1657,10 +1692,10 @@
         <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1668,10 +1703,10 @@
         <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1679,10 +1714,10 @@
         <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1690,7 +1725,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1698,10 +1733,10 @@
         <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1709,10 +1744,10 @@
         <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1720,10 +1755,10 @@
         <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1731,10 +1766,10 @@
         <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1742,10 +1777,10 @@
         <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1753,10 +1788,10 @@
         <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1764,10 +1799,10 @@
         <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1775,10 +1810,10 @@
         <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -1786,10 +1821,10 @@
         <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -1797,10 +1832,10 @@
         <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1808,10 +1843,10 @@
         <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -1819,10 +1854,10 @@
         <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -1833,10 +1868,10 @@
         <v>75</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -1844,10 +1879,10 @@
         <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -1855,10 +1890,10 @@
         <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -1866,10 +1901,10 @@
         <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -1885,7 +1920,7 @@
         <v>51</v>
       </c>
       <c r="D32" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1896,7 +1931,7 @@
         <v>52</v>
       </c>
       <c r="D33" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1907,7 +1942,7 @@
         <v>53</v>
       </c>
       <c r="D34" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1918,7 +1953,7 @@
         <v>54</v>
       </c>
       <c r="D35" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1929,7 +1964,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -1940,10 +1975,10 @@
         <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -1951,10 +1986,10 @@
         <v>58</v>
       </c>
       <c r="D38" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -1962,10 +1997,10 @@
         <v>59</v>
       </c>
       <c r="D39" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -1973,10 +2008,10 @@
         <v>60</v>
       </c>
       <c r="D40" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -1984,10 +2019,10 @@
         <v>61</v>
       </c>
       <c r="D41" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -1995,10 +2030,10 @@
         <v>62</v>
       </c>
       <c r="D42" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -2006,10 +2041,10 @@
         <v>63</v>
       </c>
       <c r="D43" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -2017,10 +2052,10 @@
         <v>64</v>
       </c>
       <c r="D44" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -2028,10 +2063,10 @@
         <v>65</v>
       </c>
       <c r="D45" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -2039,10 +2074,10 @@
         <v>66</v>
       </c>
       <c r="D46" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -2050,10 +2085,10 @@
         <v>67</v>
       </c>
       <c r="D47" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -2061,10 +2096,10 @@
         <v>68</v>
       </c>
       <c r="D48" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -2072,10 +2107,10 @@
         <v>69</v>
       </c>
       <c r="D49" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -2083,10 +2118,10 @@
         <v>70</v>
       </c>
       <c r="D50" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -2094,10 +2129,10 @@
         <v>71</v>
       </c>
       <c r="D51" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -2105,10 +2140,10 @@
         <v>72</v>
       </c>
       <c r="D52" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -2116,10 +2151,10 @@
         <v>73</v>
       </c>
       <c r="D53" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -2127,10 +2162,10 @@
         <v>74</v>
       </c>
       <c r="D54" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>2</v>
       </c>
@@ -2141,10 +2176,10 @@
         <v>85</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>2</v>
       </c>
@@ -2152,10 +2187,10 @@
         <v>26</v>
       </c>
       <c r="D56" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>2</v>
       </c>
@@ -2163,10 +2198,10 @@
         <v>27</v>
       </c>
       <c r="D57" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>2</v>
       </c>
@@ -2174,10 +2209,10 @@
         <v>28</v>
       </c>
       <c r="D58" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>2</v>
       </c>
@@ -2185,10 +2220,10 @@
         <v>29</v>
       </c>
       <c r="D59" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>2</v>
       </c>
@@ -2196,10 +2231,10 @@
         <v>30</v>
       </c>
       <c r="D60" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>2</v>
       </c>
@@ -2207,10 +2242,10 @@
         <v>31</v>
       </c>
       <c r="D61" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>2</v>
       </c>
@@ -2218,10 +2253,10 @@
         <v>32</v>
       </c>
       <c r="D62" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>2</v>
       </c>
@@ -2229,10 +2264,10 @@
         <v>33</v>
       </c>
       <c r="D63" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>2</v>
       </c>
@@ -2240,10 +2275,10 @@
         <v>34</v>
       </c>
       <c r="D64" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>2</v>
       </c>
@@ -2251,10 +2286,10 @@
         <v>35</v>
       </c>
       <c r="D65" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>2</v>
       </c>
@@ -2262,10 +2297,10 @@
         <v>36</v>
       </c>
       <c r="D66" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>2</v>
       </c>
@@ -2273,10 +2308,10 @@
         <v>37</v>
       </c>
       <c r="D67" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>2</v>
       </c>
@@ -2284,10 +2319,10 @@
         <v>39</v>
       </c>
       <c r="D68" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>2</v>
       </c>
@@ -2295,10 +2330,10 @@
         <v>40</v>
       </c>
       <c r="D69" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
@@ -2306,10 +2341,10 @@
         <v>41</v>
       </c>
       <c r="D70" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>2</v>
       </c>
@@ -2317,10 +2352,10 @@
         <v>42</v>
       </c>
       <c r="D71" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>2</v>
       </c>
@@ -2328,10 +2363,10 @@
         <v>43</v>
       </c>
       <c r="D72" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>2</v>
       </c>
@@ -2339,10 +2374,10 @@
         <v>44</v>
       </c>
       <c r="D73" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>2</v>
       </c>
@@ -2350,10 +2385,10 @@
         <v>45</v>
       </c>
       <c r="D74" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>2</v>
       </c>
@@ -2361,10 +2396,10 @@
         <v>46</v>
       </c>
       <c r="D75" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>2</v>
       </c>
@@ -2372,10 +2407,10 @@
         <v>47</v>
       </c>
       <c r="D76" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>2</v>
       </c>
@@ -2383,10 +2418,10 @@
         <v>48</v>
       </c>
       <c r="D77" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>2</v>
       </c>
@@ -2394,10 +2429,10 @@
         <v>49</v>
       </c>
       <c r="D78" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>2</v>
       </c>
@@ -2405,10 +2440,10 @@
         <v>50</v>
       </c>
       <c r="D79" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2422,7 +2457,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>2</v>
       </c>
@@ -2430,10 +2465,10 @@
         <v>77</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>2</v>
       </c>
@@ -2441,10 +2476,10 @@
         <v>78</v>
       </c>
       <c r="D82" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>2</v>
       </c>
@@ -2452,7 +2487,7 @@
         <v>79</v>
       </c>
       <c r="D83" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2463,7 +2498,7 @@
         <v>51</v>
       </c>
       <c r="D84" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2474,7 +2509,7 @@
         <v>52</v>
       </c>
       <c r="D85" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2485,10 +2520,10 @@
         <v>53</v>
       </c>
       <c r="D86" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>2</v>
       </c>
@@ -2502,7 +2537,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>2</v>
       </c>
@@ -2510,10 +2545,10 @@
         <v>57</v>
       </c>
       <c r="D88" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>2</v>
       </c>
@@ -2521,10 +2556,10 @@
         <v>58</v>
       </c>
       <c r="D89" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>2</v>
       </c>
@@ -2532,10 +2567,10 @@
         <v>59</v>
       </c>
       <c r="D90" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>2</v>
       </c>
@@ -2543,10 +2578,10 @@
         <v>60</v>
       </c>
       <c r="D91" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>2</v>
       </c>
@@ -2554,10 +2589,10 @@
         <v>61</v>
       </c>
       <c r="D92" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>2</v>
       </c>
@@ -2565,10 +2600,10 @@
         <v>69</v>
       </c>
       <c r="D93" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>2</v>
       </c>
@@ -2576,10 +2611,10 @@
         <v>70</v>
       </c>
       <c r="D94" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>2</v>
       </c>
@@ -2587,10 +2622,10 @@
         <v>71</v>
       </c>
       <c r="D95" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>2</v>
       </c>
@@ -2598,10 +2633,10 @@
         <v>72</v>
       </c>
       <c r="D96" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>2</v>
       </c>
@@ -2609,10 +2644,10 @@
         <v>73</v>
       </c>
       <c r="D97" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>2</v>
       </c>
@@ -2620,10 +2655,10 @@
         <v>63</v>
       </c>
       <c r="D98" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>2</v>
       </c>
@@ -2631,10 +2666,10 @@
         <v>64</v>
       </c>
       <c r="D99" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>2</v>
       </c>
@@ -2642,10 +2677,10 @@
         <v>65</v>
       </c>
       <c r="D100" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>2</v>
       </c>
@@ -2653,10 +2688,10 @@
         <v>66</v>
       </c>
       <c r="D101" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>2</v>
       </c>
@@ -2664,10 +2699,10 @@
         <v>67</v>
       </c>
       <c r="D102" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>3</v>
       </c>
@@ -2678,10 +2713,10 @@
         <v>85</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>3</v>
       </c>
@@ -2689,10 +2724,10 @@
         <v>26</v>
       </c>
       <c r="D104" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>3</v>
       </c>
@@ -2700,10 +2735,10 @@
         <v>27</v>
       </c>
       <c r="D105" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>3</v>
       </c>
@@ -2711,10 +2746,10 @@
         <v>28</v>
       </c>
       <c r="D106" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>3</v>
       </c>
@@ -2722,10 +2757,10 @@
         <v>29</v>
       </c>
       <c r="D107" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>3</v>
       </c>
@@ -2733,10 +2768,10 @@
         <v>30</v>
       </c>
       <c r="D108" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>3</v>
       </c>
@@ -2744,10 +2779,10 @@
         <v>31</v>
       </c>
       <c r="D109" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>3</v>
       </c>
@@ -2755,10 +2790,10 @@
         <v>32</v>
       </c>
       <c r="D110" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>3</v>
       </c>
@@ -2766,10 +2801,10 @@
         <v>33</v>
       </c>
       <c r="D111" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>3</v>
       </c>
@@ -2777,10 +2812,10 @@
         <v>34</v>
       </c>
       <c r="D112" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>3</v>
       </c>
@@ -2788,10 +2823,10 @@
         <v>35</v>
       </c>
       <c r="D113" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>3</v>
       </c>
@@ -2799,10 +2834,10 @@
         <v>36</v>
       </c>
       <c r="D114" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>3</v>
       </c>
@@ -2810,10 +2845,10 @@
         <v>37</v>
       </c>
       <c r="D115" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>3</v>
       </c>
@@ -2821,10 +2856,10 @@
         <v>39</v>
       </c>
       <c r="D116" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>3</v>
       </c>
@@ -2832,10 +2867,10 @@
         <v>40</v>
       </c>
       <c r="D117" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>3</v>
       </c>
@@ -2843,10 +2878,10 @@
         <v>41</v>
       </c>
       <c r="D118" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>3</v>
       </c>
@@ -2854,10 +2889,10 @@
         <v>42</v>
       </c>
       <c r="D119" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>3</v>
       </c>
@@ -2865,10 +2900,10 @@
         <v>43</v>
       </c>
       <c r="D120" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>3</v>
       </c>
@@ -2876,10 +2911,10 @@
         <v>44</v>
       </c>
       <c r="D121" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>3</v>
       </c>
@@ -2887,10 +2922,10 @@
         <v>45</v>
       </c>
       <c r="D122" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>3</v>
       </c>
@@ -2898,10 +2933,10 @@
         <v>46</v>
       </c>
       <c r="D123" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>3</v>
       </c>
@@ -2909,10 +2944,10 @@
         <v>47</v>
       </c>
       <c r="D124" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>3</v>
       </c>
@@ -2920,10 +2955,10 @@
         <v>48</v>
       </c>
       <c r="D125" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>3</v>
       </c>
@@ -2931,10 +2966,10 @@
         <v>49</v>
       </c>
       <c r="D126" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>3</v>
       </c>
@@ -2942,10 +2977,10 @@
         <v>50</v>
       </c>
       <c r="D127" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>3</v>
       </c>
@@ -2959,7 +2994,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>3</v>
       </c>
@@ -2973,7 +3008,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>3</v>
       </c>
@@ -2987,7 +3022,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>3</v>
       </c>
@@ -3001,7 +3036,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>3</v>
       </c>
@@ -3015,7 +3050,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>3</v>
       </c>
@@ -3029,7 +3064,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>3</v>
       </c>
@@ -3043,7 +3078,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>3</v>
       </c>
@@ -3057,7 +3092,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>3</v>
       </c>
@@ -3065,10 +3100,10 @@
         <v>77</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>3</v>
       </c>
@@ -3076,10 +3111,10 @@
         <v>78</v>
       </c>
       <c r="D137" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>3</v>
       </c>
@@ -3087,10 +3122,10 @@
         <v>79</v>
       </c>
       <c r="D138" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>3</v>
       </c>
@@ -3098,7 +3133,7 @@
         <v>80</v>
       </c>
       <c r="D139" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -3109,7 +3144,7 @@
         <v>51</v>
       </c>
       <c r="D140" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -3120,7 +3155,7 @@
         <v>52</v>
       </c>
       <c r="D141" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -3131,7 +3166,7 @@
         <v>53</v>
       </c>
       <c r="D142" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -3142,10 +3177,10 @@
         <v>54</v>
       </c>
       <c r="D143" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>3</v>
       </c>
@@ -3159,7 +3194,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>3</v>
       </c>
@@ -3167,10 +3202,10 @@
         <v>57</v>
       </c>
       <c r="D145" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>3</v>
       </c>
@@ -3178,10 +3213,10 @@
         <v>58</v>
       </c>
       <c r="D146" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>3</v>
       </c>
@@ -3189,10 +3224,10 @@
         <v>59</v>
       </c>
       <c r="D147" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>3</v>
       </c>
@@ -3200,10 +3235,10 @@
         <v>60</v>
       </c>
       <c r="D148" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>3</v>
       </c>
@@ -3211,10 +3246,10 @@
         <v>61</v>
       </c>
       <c r="D149" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>3</v>
       </c>
@@ -3222,10 +3257,10 @@
         <v>62</v>
       </c>
       <c r="D150" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>3</v>
       </c>
@@ -3233,10 +3268,10 @@
         <v>69</v>
       </c>
       <c r="D151" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>3</v>
       </c>
@@ -3244,10 +3279,10 @@
         <v>70</v>
       </c>
       <c r="D152" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>3</v>
       </c>
@@ -3255,10 +3290,10 @@
         <v>71</v>
       </c>
       <c r="D153" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>3</v>
       </c>
@@ -3266,10 +3301,10 @@
         <v>72</v>
       </c>
       <c r="D154" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>3</v>
       </c>
@@ -3277,10 +3312,10 @@
         <v>73</v>
       </c>
       <c r="D155" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>3</v>
       </c>
@@ -3288,10 +3323,10 @@
         <v>74</v>
       </c>
       <c r="D156" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>3</v>
       </c>
@@ -3299,10 +3334,10 @@
         <v>63</v>
       </c>
       <c r="D157" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>3</v>
       </c>
@@ -3310,10 +3345,10 @@
         <v>64</v>
       </c>
       <c r="D158" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>3</v>
       </c>
@@ -3321,10 +3356,10 @@
         <v>65</v>
       </c>
       <c r="D159" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>3</v>
       </c>
@@ -3332,10 +3367,10 @@
         <v>66</v>
       </c>
       <c r="D160" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>3</v>
       </c>
@@ -3343,10 +3378,10 @@
         <v>67</v>
       </c>
       <c r="D161" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>3</v>
       </c>
@@ -3354,10 +3389,10 @@
         <v>68</v>
       </c>
       <c r="D162" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>4</v>
       </c>
@@ -3368,10 +3403,10 @@
         <v>99</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>4</v>
       </c>
@@ -3379,11 +3414,11 @@
         <v>26</v>
       </c>
       <c r="D164" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="G164" s="1"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>4</v>
       </c>
@@ -3391,11 +3426,11 @@
         <v>27</v>
       </c>
       <c r="D165" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="G165" s="1"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>4</v>
       </c>
@@ -3403,10 +3438,10 @@
         <v>28</v>
       </c>
       <c r="D166" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>4</v>
       </c>
@@ -3414,10 +3449,10 @@
         <v>29</v>
       </c>
       <c r="D167" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>4</v>
       </c>
@@ -3425,10 +3460,10 @@
         <v>30</v>
       </c>
       <c r="D168" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>4</v>
       </c>
@@ -3436,10 +3471,10 @@
         <v>31</v>
       </c>
       <c r="D169" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>4</v>
       </c>
@@ -3447,10 +3482,10 @@
         <v>32</v>
       </c>
       <c r="D170" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>4</v>
       </c>
@@ -3458,10 +3493,10 @@
         <v>33</v>
       </c>
       <c r="D171" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>4</v>
       </c>
@@ -3469,10 +3504,10 @@
         <v>34</v>
       </c>
       <c r="D172" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>4</v>
       </c>
@@ -3480,10 +3515,10 @@
         <v>35</v>
       </c>
       <c r="D173" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>4</v>
       </c>
@@ -3491,10 +3526,10 @@
         <v>36</v>
       </c>
       <c r="D174" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>4</v>
       </c>
@@ -3502,10 +3537,10 @@
         <v>37</v>
       </c>
       <c r="D175" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>4</v>
       </c>
@@ -3513,10 +3548,10 @@
         <v>100</v>
       </c>
       <c r="D176" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>4</v>
       </c>
@@ -3524,10 +3559,10 @@
         <v>101</v>
       </c>
       <c r="D177" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>4</v>
       </c>
@@ -3535,10 +3570,10 @@
         <v>102</v>
       </c>
       <c r="D178" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>4</v>
       </c>
@@ -3546,10 +3581,10 @@
         <v>39</v>
       </c>
       <c r="D179" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>4</v>
       </c>
@@ -3557,10 +3592,10 @@
         <v>40</v>
       </c>
       <c r="D180" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>4</v>
       </c>
@@ -3568,10 +3603,10 @@
         <v>41</v>
       </c>
       <c r="D181" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>4</v>
       </c>
@@ -3579,10 +3614,10 @@
         <v>42</v>
       </c>
       <c r="D182" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>4</v>
       </c>
@@ -3590,10 +3625,10 @@
         <v>43</v>
       </c>
       <c r="D183" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>4</v>
       </c>
@@ -3601,10 +3636,10 @@
         <v>44</v>
       </c>
       <c r="D184" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>4</v>
       </c>
@@ -3612,10 +3647,10 @@
         <v>45</v>
       </c>
       <c r="D185" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>4</v>
       </c>
@@ -3623,10 +3658,10 @@
         <v>46</v>
       </c>
       <c r="D186" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>4</v>
       </c>
@@ -3634,10 +3669,10 @@
         <v>47</v>
       </c>
       <c r="D187" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>4</v>
       </c>
@@ -3645,10 +3680,10 @@
         <v>48</v>
       </c>
       <c r="D188" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>4</v>
       </c>
@@ -3656,10 +3691,10 @@
         <v>49</v>
       </c>
       <c r="D189" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>4</v>
       </c>
@@ -3667,10 +3702,10 @@
         <v>50</v>
       </c>
       <c r="D190" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>4</v>
       </c>
@@ -3678,10 +3713,10 @@
         <v>103</v>
       </c>
       <c r="D191" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>4</v>
       </c>
@@ -3689,10 +3724,10 @@
         <v>104</v>
       </c>
       <c r="D192" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>4</v>
       </c>
@@ -3700,10 +3735,10 @@
         <v>105</v>
       </c>
       <c r="D193" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>4</v>
       </c>
@@ -3711,7 +3746,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>4</v>
       </c>
@@ -3719,13 +3754,13 @@
         <v>83</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>4</v>
       </c>
@@ -3733,10 +3768,10 @@
         <v>77</v>
       </c>
       <c r="D196" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>4</v>
       </c>
@@ -3744,10 +3779,10 @@
         <v>78</v>
       </c>
       <c r="D197" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>4</v>
       </c>
@@ -3755,10 +3790,10 @@
         <v>79</v>
       </c>
       <c r="D198" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>4</v>
       </c>
@@ -3766,7 +3801,7 @@
         <v>80</v>
       </c>
       <c r="D199" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -3777,7 +3812,7 @@
         <v>51</v>
       </c>
       <c r="D200" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -3788,7 +3823,7 @@
         <v>52</v>
       </c>
       <c r="D201" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -3799,7 +3834,7 @@
         <v>53</v>
       </c>
       <c r="D202" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -3810,13 +3845,13 @@
         <v>54</v>
       </c>
       <c r="D203" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>4</v>
       </c>
@@ -3825,7 +3860,7 @@
       </c>
       <c r="D204" s="1"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>4</v>
       </c>
@@ -3837,7 +3872,7 @@
       </c>
       <c r="G205" s="1"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>4</v>
       </c>
@@ -3845,11 +3880,11 @@
         <v>57</v>
       </c>
       <c r="D206" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="G206" s="1"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>4</v>
       </c>
@@ -3857,10 +3892,10 @@
         <v>58</v>
       </c>
       <c r="D207" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>4</v>
       </c>
@@ -3868,10 +3903,10 @@
         <v>59</v>
       </c>
       <c r="D208" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>4</v>
       </c>
@@ -3879,10 +3914,10 @@
         <v>60</v>
       </c>
       <c r="D209" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>4</v>
       </c>
@@ -3890,10 +3925,10 @@
         <v>61</v>
       </c>
       <c r="D210" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>4</v>
       </c>
@@ -3901,10 +3936,10 @@
         <v>62</v>
       </c>
       <c r="D211" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>4</v>
       </c>
@@ -3912,10 +3947,10 @@
         <v>109</v>
       </c>
       <c r="D212" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>4</v>
       </c>
@@ -3923,10 +3958,10 @@
         <v>110</v>
       </c>
       <c r="D213" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>4</v>
       </c>
@@ -3934,10 +3969,10 @@
         <v>111</v>
       </c>
       <c r="D214" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>4</v>
       </c>
@@ -3945,10 +3980,10 @@
         <v>112</v>
       </c>
       <c r="D215" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>4</v>
       </c>
@@ -3956,10 +3991,10 @@
         <v>113</v>
       </c>
       <c r="D216" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>4</v>
       </c>
@@ -3967,10 +4002,10 @@
         <v>114</v>
       </c>
       <c r="D217" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>4</v>
       </c>
@@ -3978,10 +4013,10 @@
         <v>115</v>
       </c>
       <c r="D218" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>4</v>
       </c>
@@ -3989,10 +4024,10 @@
         <v>116</v>
       </c>
       <c r="D219" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>4</v>
       </c>
@@ -4000,10 +4035,10 @@
         <v>117</v>
       </c>
       <c r="D220" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>4</v>
       </c>
@@ -4011,10 +4046,10 @@
         <v>118</v>
       </c>
       <c r="D221" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>4</v>
       </c>
@@ -4022,10 +4057,10 @@
         <v>69</v>
       </c>
       <c r="D222" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>4</v>
       </c>
@@ -4033,10 +4068,10 @@
         <v>70</v>
       </c>
       <c r="D223" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>4</v>
       </c>
@@ -4044,10 +4079,10 @@
         <v>71</v>
       </c>
       <c r="D224" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>4</v>
       </c>
@@ -4055,10 +4090,10 @@
         <v>72</v>
       </c>
       <c r="D225" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>4</v>
       </c>
@@ -4066,10 +4101,10 @@
         <v>73</v>
       </c>
       <c r="D226" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>4</v>
       </c>
@@ -4077,10 +4112,10 @@
         <v>74</v>
       </c>
       <c r="D227" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>4</v>
       </c>
@@ -4088,10 +4123,10 @@
         <v>119</v>
       </c>
       <c r="D228" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>4</v>
       </c>
@@ -4099,10 +4134,10 @@
         <v>120</v>
       </c>
       <c r="D229" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>4</v>
       </c>
@@ -4110,10 +4145,10 @@
         <v>63</v>
       </c>
       <c r="D230" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>4</v>
       </c>
@@ -4121,10 +4156,10 @@
         <v>64</v>
       </c>
       <c r="D231" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>4</v>
       </c>
@@ -4132,10 +4167,10 @@
         <v>65</v>
       </c>
       <c r="D232" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>4</v>
       </c>
@@ -4143,10 +4178,10 @@
         <v>66</v>
       </c>
       <c r="D233" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>4</v>
       </c>
@@ -4154,10 +4189,10 @@
         <v>67</v>
       </c>
       <c r="D234" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>4</v>
       </c>
@@ -4165,10 +4200,10 @@
         <v>68</v>
       </c>
       <c r="D235" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>4</v>
       </c>
@@ -4176,10 +4211,10 @@
         <v>121</v>
       </c>
       <c r="D236" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>4</v>
       </c>
@@ -4187,10 +4222,10 @@
         <v>122</v>
       </c>
       <c r="D237" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>4</v>
       </c>
@@ -4198,7 +4233,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>4</v>
       </c>
@@ -4206,7 +4241,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>4</v>
       </c>
@@ -4217,7 +4252,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>4</v>
       </c>
@@ -4228,7 +4263,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>4</v>
       </c>
@@ -4237,7 +4272,7 @@
       </c>
       <c r="E242" s="1"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>4</v>
       </c>
@@ -4246,7 +4281,7 @@
       </c>
       <c r="D243" s="1"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>4</v>
       </c>
@@ -4257,7 +4292,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>4</v>
       </c>
@@ -4268,7 +4303,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>4</v>
       </c>
@@ -4277,7 +4312,7 @@
       </c>
       <c r="D246" s="1"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>4</v>
       </c>
@@ -4289,7 +4324,7 @@
       </c>
       <c r="E247" s="1"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>4</v>
       </c>
@@ -4300,7 +4335,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>5</v>
       </c>
@@ -4314,7 +4349,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>5</v>
       </c>
@@ -4322,10 +4357,10 @@
         <v>77</v>
       </c>
       <c r="D250" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>5</v>
       </c>
@@ -4333,10 +4368,10 @@
         <v>78</v>
       </c>
       <c r="D251" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>5</v>
       </c>
@@ -4344,10 +4379,10 @@
         <v>79</v>
       </c>
       <c r="D252" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>5</v>
       </c>
@@ -4355,10 +4390,10 @@
         <v>80</v>
       </c>
       <c r="D253" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>5</v>
       </c>
@@ -4366,10 +4401,10 @@
         <v>81</v>
       </c>
       <c r="D254" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>5</v>
       </c>
@@ -4377,7 +4412,7 @@
         <v>127</v>
       </c>
       <c r="D255" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -4388,7 +4423,7 @@
         <v>51</v>
       </c>
       <c r="D256" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -4399,7 +4434,7 @@
         <v>52</v>
       </c>
       <c r="D257" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -4410,7 +4445,7 @@
         <v>53</v>
       </c>
       <c r="D258" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -4421,7 +4456,7 @@
         <v>54</v>
       </c>
       <c r="D259" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -4432,7 +4467,7 @@
         <v>55</v>
       </c>
       <c r="D260" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -4443,10 +4478,10 @@
         <v>56</v>
       </c>
       <c r="D261" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>5</v>
       </c>
@@ -4460,7 +4495,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>5</v>
       </c>
@@ -4468,10 +4503,10 @@
         <v>57</v>
       </c>
       <c r="D263" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>5</v>
       </c>
@@ -4479,10 +4514,10 @@
         <v>58</v>
       </c>
       <c r="D264" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>5</v>
       </c>
@@ -4490,10 +4525,10 @@
         <v>59</v>
       </c>
       <c r="D265" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>5</v>
       </c>
@@ -4501,10 +4536,10 @@
         <v>60</v>
       </c>
       <c r="D266" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>5</v>
       </c>
@@ -4512,10 +4547,10 @@
         <v>61</v>
       </c>
       <c r="D267" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>5</v>
       </c>
@@ -4523,10 +4558,10 @@
         <v>62</v>
       </c>
       <c r="D268" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>5</v>
       </c>
@@ -4534,10 +4569,10 @@
         <v>111</v>
       </c>
       <c r="D269" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>5</v>
       </c>
@@ -4545,10 +4580,10 @@
         <v>112</v>
       </c>
       <c r="D270" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>5</v>
       </c>
@@ -4556,10 +4591,10 @@
         <v>113</v>
       </c>
       <c r="D271" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>5</v>
       </c>
@@ -4567,10 +4602,10 @@
         <v>114</v>
       </c>
       <c r="D272" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>5</v>
       </c>
@@ -4578,10 +4613,10 @@
         <v>115</v>
       </c>
       <c r="D273" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>5</v>
       </c>
@@ -4589,10 +4624,10 @@
         <v>116</v>
       </c>
       <c r="D274" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>5</v>
       </c>
@@ -4600,10 +4635,10 @@
         <v>69</v>
       </c>
       <c r="D275" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>5</v>
       </c>
@@ -4611,10 +4646,10 @@
         <v>70</v>
       </c>
       <c r="D276" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>5</v>
       </c>
@@ -4622,10 +4657,10 @@
         <v>71</v>
       </c>
       <c r="D277" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>5</v>
       </c>
@@ -4633,10 +4668,10 @@
         <v>72</v>
       </c>
       <c r="D278" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>5</v>
       </c>
@@ -4644,10 +4679,10 @@
         <v>73</v>
       </c>
       <c r="D279" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>5</v>
       </c>
@@ -4655,10 +4690,10 @@
         <v>74</v>
       </c>
       <c r="D280" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>5</v>
       </c>
@@ -4666,10 +4701,10 @@
         <v>63</v>
       </c>
       <c r="D281" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>5</v>
       </c>
@@ -4677,10 +4712,10 @@
         <v>64</v>
       </c>
       <c r="D282" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>5</v>
       </c>
@@ -4688,10 +4723,10 @@
         <v>65</v>
       </c>
       <c r="D283" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>5</v>
       </c>
@@ -4699,10 +4734,10 @@
         <v>66</v>
       </c>
       <c r="D284" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>5</v>
       </c>
@@ -4710,10 +4745,10 @@
         <v>67</v>
       </c>
       <c r="D285" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>5</v>
       </c>
@@ -4721,10 +4756,10 @@
         <v>68</v>
       </c>
       <c r="D286" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>6</v>
       </c>
@@ -4746,7 +4781,7 @@
         <v>51</v>
       </c>
       <c r="D288" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -4757,7 +4792,7 @@
         <v>52</v>
       </c>
       <c r="D289" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -4768,7 +4803,7 @@
         <v>53</v>
       </c>
       <c r="D290" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -4779,10 +4814,10 @@
         <v>54</v>
       </c>
       <c r="D291" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>6</v>
       </c>
@@ -4790,10 +4825,10 @@
         <v>77</v>
       </c>
       <c r="D292" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>6</v>
       </c>
@@ -4801,10 +4836,10 @@
         <v>78</v>
       </c>
       <c r="D293" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>6</v>
       </c>
@@ -4812,10 +4847,10 @@
         <v>79</v>
       </c>
       <c r="D294" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>6</v>
       </c>
@@ -4823,10 +4858,10 @@
         <v>80</v>
       </c>
       <c r="D295" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>6</v>
       </c>
@@ -4840,7 +4875,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>6</v>
       </c>
@@ -4848,10 +4883,10 @@
         <v>111</v>
       </c>
       <c r="D297" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>6</v>
       </c>
@@ -4859,10 +4894,10 @@
         <v>112</v>
       </c>
       <c r="D298" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>6</v>
       </c>
@@ -4870,10 +4905,10 @@
         <v>113</v>
       </c>
       <c r="D299" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>6</v>
       </c>
@@ -4881,10 +4916,10 @@
         <v>114</v>
       </c>
       <c r="D300" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>6</v>
       </c>
@@ -4892,10 +4927,10 @@
         <v>115</v>
       </c>
       <c r="D301" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>6</v>
       </c>
@@ -4903,10 +4938,10 @@
         <v>57</v>
       </c>
       <c r="D302" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>6</v>
       </c>
@@ -4914,10 +4949,10 @@
         <v>58</v>
       </c>
       <c r="D303" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>6</v>
       </c>
@@ -4925,10 +4960,10 @@
         <v>59</v>
       </c>
       <c r="D304" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>6</v>
       </c>
@@ -4936,10 +4971,10 @@
         <v>60</v>
       </c>
       <c r="D305" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>6</v>
       </c>
@@ -4947,10 +4982,10 @@
         <v>61</v>
       </c>
       <c r="D306" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>6</v>
       </c>
@@ -4958,10 +4993,10 @@
         <v>62</v>
       </c>
       <c r="D307" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>6</v>
       </c>
@@ -4969,10 +5004,10 @@
         <v>63</v>
       </c>
       <c r="D308" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>6</v>
       </c>
@@ -4980,10 +5015,10 @@
         <v>64</v>
       </c>
       <c r="D309" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>6</v>
       </c>
@@ -4991,10 +5026,10 @@
         <v>65</v>
       </c>
       <c r="D310" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>6</v>
       </c>
@@ -5002,10 +5037,10 @@
         <v>66</v>
       </c>
       <c r="D311" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>6</v>
       </c>
@@ -5013,10 +5048,10 @@
         <v>67</v>
       </c>
       <c r="D312" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>6</v>
       </c>
@@ -5024,10 +5059,10 @@
         <v>68</v>
       </c>
       <c r="D313" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>18</v>
       </c>
@@ -5049,7 +5084,7 @@
         <v>51</v>
       </c>
       <c r="D315" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -5060,7 +5095,7 @@
         <v>52</v>
       </c>
       <c r="D316" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -5071,7 +5106,7 @@
         <v>53</v>
       </c>
       <c r="D317" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -5082,7 +5117,7 @@
         <v>54</v>
       </c>
       <c r="D318" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -5093,7 +5128,7 @@
         <v>55</v>
       </c>
       <c r="D319" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -5104,10 +5139,10 @@
         <v>56</v>
       </c>
       <c r="D320" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>18</v>
       </c>
@@ -5115,10 +5150,10 @@
         <v>77</v>
       </c>
       <c r="D321" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>18</v>
       </c>
@@ -5126,10 +5161,10 @@
         <v>78</v>
       </c>
       <c r="D322" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>18</v>
       </c>
@@ -5137,10 +5172,10 @@
         <v>79</v>
       </c>
       <c r="D323" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>18</v>
       </c>
@@ -5148,10 +5183,10 @@
         <v>80</v>
       </c>
       <c r="D324" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>18</v>
       </c>
@@ -5159,10 +5194,10 @@
         <v>81</v>
       </c>
       <c r="D325" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>18</v>
       </c>
@@ -5170,10 +5205,10 @@
         <v>127</v>
       </c>
       <c r="D326" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>18</v>
       </c>
@@ -5187,7 +5222,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>18</v>
       </c>
@@ -5195,10 +5230,10 @@
         <v>63</v>
       </c>
       <c r="D328" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>18</v>
       </c>
@@ -5206,10 +5241,10 @@
         <v>64</v>
       </c>
       <c r="D329" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>18</v>
       </c>
@@ -5217,10 +5252,10 @@
         <v>65</v>
       </c>
       <c r="D330" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>18</v>
       </c>
@@ -5228,10 +5263,10 @@
         <v>66</v>
       </c>
       <c r="D331" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>18</v>
       </c>
@@ -5239,10 +5274,10 @@
         <v>67</v>
       </c>
       <c r="D332" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>18</v>
       </c>
@@ -5250,10 +5285,10 @@
         <v>68</v>
       </c>
       <c r="D333" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>18</v>
       </c>
@@ -5261,10 +5296,10 @@
         <v>121</v>
       </c>
       <c r="D334" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>18</v>
       </c>
@@ -5272,10 +5307,10 @@
         <v>122</v>
       </c>
       <c r="D335" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>18</v>
       </c>
@@ -5283,10 +5318,10 @@
         <v>111</v>
       </c>
       <c r="D336" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>18</v>
       </c>
@@ -5294,10 +5329,10 @@
         <v>112</v>
       </c>
       <c r="D337" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>18</v>
       </c>
@@ -5305,10 +5340,10 @@
         <v>113</v>
       </c>
       <c r="D338" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>18</v>
       </c>
@@ -5316,10 +5351,10 @@
         <v>114</v>
       </c>
       <c r="D339" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>18</v>
       </c>
@@ -5327,10 +5362,10 @@
         <v>115</v>
       </c>
       <c r="D340" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>18</v>
       </c>
@@ -5338,10 +5373,10 @@
         <v>116</v>
       </c>
       <c r="D341" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>18</v>
       </c>
@@ -5349,10 +5384,10 @@
         <v>117</v>
       </c>
       <c r="D342" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>18</v>
       </c>
@@ -5360,10 +5395,10 @@
         <v>118</v>
       </c>
       <c r="D343" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>18</v>
       </c>
@@ -5371,10 +5406,10 @@
         <v>57</v>
       </c>
       <c r="D344" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>18</v>
       </c>
@@ -5382,10 +5417,10 @@
         <v>58</v>
       </c>
       <c r="D345" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>18</v>
       </c>
@@ -5393,10 +5428,10 @@
         <v>59</v>
       </c>
       <c r="D346" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>18</v>
       </c>
@@ -5404,10 +5439,10 @@
         <v>60</v>
       </c>
       <c r="D347" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>18</v>
       </c>
@@ -5415,10 +5450,10 @@
         <v>61</v>
       </c>
       <c r="D348" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>18</v>
       </c>
@@ -5426,10 +5461,10 @@
         <v>62</v>
       </c>
       <c r="D349" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>18</v>
       </c>
@@ -5437,10 +5472,10 @@
         <v>109</v>
       </c>
       <c r="D350" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>18</v>
       </c>
@@ -5448,10 +5483,10 @@
         <v>110</v>
       </c>
       <c r="D351" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>7</v>
       </c>
@@ -5465,7 +5500,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>7</v>
       </c>
@@ -5473,10 +5508,10 @@
         <v>77</v>
       </c>
       <c r="D353" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>7</v>
       </c>
@@ -5484,10 +5519,10 @@
         <v>78</v>
       </c>
       <c r="D354" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>7</v>
       </c>
@@ -5495,10 +5530,10 @@
         <v>79</v>
       </c>
       <c r="D355" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>7</v>
       </c>
@@ -5506,10 +5541,10 @@
         <v>80</v>
       </c>
       <c r="D356" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>7</v>
       </c>
@@ -5517,7 +5552,7 @@
         <v>81</v>
       </c>
       <c r="D357" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -5528,7 +5563,7 @@
         <v>51</v>
       </c>
       <c r="D358" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -5539,7 +5574,7 @@
         <v>52</v>
       </c>
       <c r="D359" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -5550,7 +5585,7 @@
         <v>53</v>
       </c>
       <c r="D360" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -5561,7 +5596,7 @@
         <v>54</v>
       </c>
       <c r="D361" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -5572,10 +5607,10 @@
         <v>55</v>
       </c>
       <c r="D362" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>7</v>
       </c>
@@ -5589,7 +5624,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>7</v>
       </c>
@@ -5597,10 +5632,10 @@
         <v>111</v>
       </c>
       <c r="D364" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>7</v>
       </c>
@@ -5608,10 +5643,10 @@
         <v>57</v>
       </c>
       <c r="D365" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>7</v>
       </c>
@@ -5619,10 +5654,10 @@
         <v>63</v>
       </c>
       <c r="D366" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>7</v>
       </c>
@@ -5630,10 +5665,10 @@
         <v>112</v>
       </c>
       <c r="D367" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>7</v>
       </c>
@@ -5641,10 +5676,10 @@
         <v>58</v>
       </c>
       <c r="D368" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>7</v>
       </c>
@@ -5652,10 +5687,10 @@
         <v>64</v>
       </c>
       <c r="D369" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>7</v>
       </c>
@@ -5663,10 +5698,10 @@
         <v>113</v>
       </c>
       <c r="D370" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>7</v>
       </c>
@@ -5674,10 +5709,10 @@
         <v>59</v>
       </c>
       <c r="D371" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>7</v>
       </c>
@@ -5685,10 +5720,10 @@
         <v>65</v>
       </c>
       <c r="D372" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>7</v>
       </c>
@@ -5696,10 +5731,10 @@
         <v>114</v>
       </c>
       <c r="D373" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>7</v>
       </c>
@@ -5707,10 +5742,10 @@
         <v>60</v>
       </c>
       <c r="D374" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>7</v>
       </c>
@@ -5718,10 +5753,10 @@
         <v>66</v>
       </c>
       <c r="D375" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>7</v>
       </c>
@@ -5729,10 +5764,10 @@
         <v>115</v>
       </c>
       <c r="D376" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>7</v>
       </c>
@@ -5740,10 +5775,10 @@
         <v>61</v>
       </c>
       <c r="D377" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>7</v>
       </c>
@@ -5751,10 +5786,10 @@
         <v>67</v>
       </c>
       <c r="D378" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>7</v>
       </c>
@@ -5762,10 +5797,10 @@
         <v>116</v>
       </c>
       <c r="D379" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>7</v>
       </c>
@@ -5773,10 +5808,10 @@
         <v>62</v>
       </c>
       <c r="D380" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>7</v>
       </c>
@@ -5784,10 +5819,10 @@
         <v>68</v>
       </c>
       <c r="D381" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>7</v>
       </c>
@@ -5795,10 +5830,10 @@
         <v>117</v>
       </c>
       <c r="D382" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>7</v>
       </c>
@@ -5806,10 +5841,10 @@
         <v>109</v>
       </c>
       <c r="D383" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>7</v>
       </c>
@@ -5817,10 +5852,10 @@
         <v>121</v>
       </c>
       <c r="D384" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>7</v>
       </c>
@@ -5828,10 +5863,10 @@
         <v>118</v>
       </c>
       <c r="D385" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>7</v>
       </c>
@@ -5839,10 +5874,10 @@
         <v>110</v>
       </c>
       <c r="D386" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>7</v>
       </c>
@@ -5850,10 +5885,10 @@
         <v>122</v>
       </c>
       <c r="D387" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>7</v>
       </c>
@@ -5861,10 +5896,10 @@
         <v>133</v>
       </c>
       <c r="D388" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>7</v>
       </c>
@@ -5872,10 +5907,10 @@
         <v>134</v>
       </c>
       <c r="D389" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>7</v>
       </c>
@@ -5883,10 +5918,10 @@
         <v>135</v>
       </c>
       <c r="D390" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>7</v>
       </c>
@@ -5894,7 +5929,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>7</v>
       </c>
@@ -5902,7 +5937,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>7</v>
       </c>
@@ -5910,7 +5945,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>17</v>
       </c>
@@ -5924,7 +5959,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>17</v>
       </c>
@@ -5932,10 +5967,10 @@
         <v>77</v>
       </c>
       <c r="D395" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>17</v>
       </c>
@@ -5943,10 +5978,10 @@
         <v>78</v>
       </c>
       <c r="D396" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>17</v>
       </c>
@@ -5954,10 +5989,10 @@
         <v>79</v>
       </c>
       <c r="D397" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>17</v>
       </c>
@@ -5965,10 +6000,10 @@
         <v>80</v>
       </c>
       <c r="D398" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>17</v>
       </c>
@@ -5976,7 +6011,7 @@
         <v>81</v>
       </c>
       <c r="D399" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -5987,7 +6022,7 @@
         <v>51</v>
       </c>
       <c r="D400" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -5998,7 +6033,7 @@
         <v>52</v>
       </c>
       <c r="D401" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -6009,7 +6044,7 @@
         <v>53</v>
       </c>
       <c r="D402" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -6020,7 +6055,7 @@
         <v>54</v>
       </c>
       <c r="D403" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -6031,10 +6066,10 @@
         <v>55</v>
       </c>
       <c r="D404" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>17</v>
       </c>
@@ -6045,7 +6080,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>17</v>
       </c>
@@ -6053,10 +6088,10 @@
         <v>111</v>
       </c>
       <c r="D406" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>17</v>
       </c>
@@ -6064,10 +6099,10 @@
         <v>57</v>
       </c>
       <c r="D407" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>17</v>
       </c>
@@ -6075,10 +6110,10 @@
         <v>63</v>
       </c>
       <c r="D408" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>17</v>
       </c>
@@ -6086,10 +6121,10 @@
         <v>112</v>
       </c>
       <c r="D409" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>17</v>
       </c>
@@ -6097,10 +6132,10 @@
         <v>58</v>
       </c>
       <c r="D410" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>17</v>
       </c>
@@ -6108,10 +6143,10 @@
         <v>64</v>
       </c>
       <c r="D411" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>17</v>
       </c>
@@ -6119,10 +6154,10 @@
         <v>113</v>
       </c>
       <c r="D412" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>17</v>
       </c>
@@ -6130,10 +6165,10 @@
         <v>59</v>
       </c>
       <c r="D413" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>17</v>
       </c>
@@ -6141,10 +6176,10 @@
         <v>65</v>
       </c>
       <c r="D414" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>17</v>
       </c>
@@ -6152,10 +6187,10 @@
         <v>114</v>
       </c>
       <c r="D415" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>17</v>
       </c>
@@ -6163,10 +6198,10 @@
         <v>60</v>
       </c>
       <c r="D416" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>17</v>
       </c>
@@ -6174,10 +6209,10 @@
         <v>66</v>
       </c>
       <c r="D417" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>17</v>
       </c>
@@ -6185,10 +6220,10 @@
         <v>115</v>
       </c>
       <c r="D418" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>17</v>
       </c>
@@ -6196,10 +6231,10 @@
         <v>61</v>
       </c>
       <c r="D419" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>17</v>
       </c>
@@ -6207,10 +6242,10 @@
         <v>67</v>
       </c>
       <c r="D420" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>17</v>
       </c>
@@ -6218,10 +6253,10 @@
         <v>116</v>
       </c>
       <c r="D421" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>17</v>
       </c>
@@ -6229,10 +6264,10 @@
         <v>62</v>
       </c>
       <c r="D422" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>17</v>
       </c>
@@ -6240,10 +6275,10 @@
         <v>68</v>
       </c>
       <c r="D423" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>17</v>
       </c>
@@ -6251,10 +6286,10 @@
         <v>117</v>
       </c>
       <c r="D424" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>17</v>
       </c>
@@ -6262,10 +6297,10 @@
         <v>109</v>
       </c>
       <c r="D425" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>17</v>
       </c>
@@ -6273,10 +6308,10 @@
         <v>121</v>
       </c>
       <c r="D426" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>17</v>
       </c>
@@ -6284,10 +6319,10 @@
         <v>118</v>
       </c>
       <c r="D427" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>17</v>
       </c>
@@ -6295,10 +6330,10 @@
         <v>110</v>
       </c>
       <c r="D428" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>17</v>
       </c>
@@ -6306,10 +6341,10 @@
         <v>122</v>
       </c>
       <c r="D429" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>17</v>
       </c>
@@ -6317,10 +6352,10 @@
         <v>133</v>
       </c>
       <c r="D430" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>17</v>
       </c>
@@ -6328,10 +6363,10 @@
         <v>134</v>
       </c>
       <c r="D431" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>17</v>
       </c>
@@ -6339,10 +6374,10 @@
         <v>135</v>
       </c>
       <c r="D432" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>17</v>
       </c>
@@ -6350,7 +6385,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>17</v>
       </c>
@@ -6358,7 +6393,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>17</v>
       </c>
@@ -6366,7 +6401,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>8</v>
       </c>
@@ -6380,7 +6415,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>8</v>
       </c>
@@ -6388,10 +6423,10 @@
         <v>77</v>
       </c>
       <c r="D437" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>8</v>
       </c>
@@ -6399,10 +6434,10 @@
         <v>78</v>
       </c>
       <c r="D438" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>8</v>
       </c>
@@ -6410,10 +6445,10 @@
         <v>79</v>
       </c>
       <c r="D439" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>8</v>
       </c>
@@ -6421,10 +6456,10 @@
         <v>80</v>
       </c>
       <c r="D440" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>8</v>
       </c>
@@ -6432,7 +6467,7 @@
         <v>81</v>
       </c>
       <c r="D441" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -6443,7 +6478,7 @@
         <v>51</v>
       </c>
       <c r="D442" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -6454,7 +6489,7 @@
         <v>52</v>
       </c>
       <c r="D443" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -6465,7 +6500,7 @@
         <v>53</v>
       </c>
       <c r="D444" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -6476,7 +6511,7 @@
         <v>54</v>
       </c>
       <c r="D445" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -6487,10 +6522,10 @@
         <v>55</v>
       </c>
       <c r="D446" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>8</v>
       </c>
@@ -6504,7 +6539,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>8</v>
       </c>
@@ -6512,10 +6547,10 @@
         <v>111</v>
       </c>
       <c r="D448" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>8</v>
       </c>
@@ -6523,10 +6558,10 @@
         <v>57</v>
       </c>
       <c r="D449" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>8</v>
       </c>
@@ -6534,10 +6569,10 @@
         <v>63</v>
       </c>
       <c r="D450" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>8</v>
       </c>
@@ -6545,10 +6580,10 @@
         <v>112</v>
       </c>
       <c r="D451" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>8</v>
       </c>
@@ -6556,10 +6591,10 @@
         <v>58</v>
       </c>
       <c r="D452" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>8</v>
       </c>
@@ -6567,10 +6602,10 @@
         <v>64</v>
       </c>
       <c r="D453" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>8</v>
       </c>
@@ -6578,10 +6613,10 @@
         <v>113</v>
       </c>
       <c r="D454" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>8</v>
       </c>
@@ -6589,10 +6624,10 @@
         <v>59</v>
       </c>
       <c r="D455" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>8</v>
       </c>
@@ -6600,10 +6635,10 @@
         <v>65</v>
       </c>
       <c r="D456" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>8</v>
       </c>
@@ -6611,10 +6646,10 @@
         <v>114</v>
       </c>
       <c r="D457" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>8</v>
       </c>
@@ -6622,10 +6657,10 @@
         <v>60</v>
       </c>
       <c r="D458" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>8</v>
       </c>
@@ -6633,10 +6668,10 @@
         <v>66</v>
       </c>
       <c r="D459" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>8</v>
       </c>
@@ -6644,10 +6679,10 @@
         <v>115</v>
       </c>
       <c r="D460" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>8</v>
       </c>
@@ -6655,10 +6690,10 @@
         <v>61</v>
       </c>
       <c r="D461" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>8</v>
       </c>
@@ -6666,10 +6701,10 @@
         <v>67</v>
       </c>
       <c r="D462" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="463" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>9</v>
       </c>
@@ -6683,7 +6718,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>9</v>
       </c>
@@ -6691,10 +6726,10 @@
         <v>77</v>
       </c>
       <c r="D464" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>9</v>
       </c>
@@ -6702,10 +6737,10 @@
         <v>78</v>
       </c>
       <c r="D465" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>9</v>
       </c>
@@ -6713,10 +6748,10 @@
         <v>79</v>
       </c>
       <c r="D466" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>9</v>
       </c>
@@ -6724,10 +6759,10 @@
         <v>80</v>
       </c>
       <c r="D467" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>9</v>
       </c>
@@ -6735,7 +6770,7 @@
         <v>81</v>
       </c>
       <c r="D468" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -6746,7 +6781,7 @@
         <v>51</v>
       </c>
       <c r="D469" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -6757,7 +6792,7 @@
         <v>52</v>
       </c>
       <c r="D470" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -6768,7 +6803,7 @@
         <v>53</v>
       </c>
       <c r="D471" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -6779,7 +6814,7 @@
         <v>54</v>
       </c>
       <c r="D472" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -6790,10 +6825,10 @@
         <v>55</v>
       </c>
       <c r="D473" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>9</v>
       </c>
@@ -6801,10 +6836,10 @@
         <v>144</v>
       </c>
       <c r="D474" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>9</v>
       </c>
@@ -6812,10 +6847,10 @@
         <v>145</v>
       </c>
       <c r="D475" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>9</v>
       </c>
@@ -6823,10 +6858,10 @@
         <v>146</v>
       </c>
       <c r="D476" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>9</v>
       </c>
@@ -6834,10 +6869,10 @@
         <v>147</v>
       </c>
       <c r="D477" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>9</v>
       </c>
@@ -6845,10 +6880,10 @@
         <v>148</v>
       </c>
       <c r="D478" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>9</v>
       </c>
@@ -6862,7 +6897,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>9</v>
       </c>
@@ -6870,10 +6905,10 @@
         <v>111</v>
       </c>
       <c r="D480" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>9</v>
       </c>
@@ -6881,10 +6916,10 @@
         <v>57</v>
       </c>
       <c r="D481" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>9</v>
       </c>
@@ -6892,10 +6927,10 @@
         <v>63</v>
       </c>
       <c r="D482" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>9</v>
       </c>
@@ -6903,10 +6938,10 @@
         <v>112</v>
       </c>
       <c r="D483" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>9</v>
       </c>
@@ -6914,10 +6949,10 @@
         <v>58</v>
       </c>
       <c r="D484" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>9</v>
       </c>
@@ -6925,10 +6960,10 @@
         <v>64</v>
       </c>
       <c r="D485" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>9</v>
       </c>
@@ -6936,10 +6971,10 @@
         <v>113</v>
       </c>
       <c r="D486" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>9</v>
       </c>
@@ -6947,10 +6982,10 @@
         <v>59</v>
       </c>
       <c r="D487" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>9</v>
       </c>
@@ -6958,10 +6993,10 @@
         <v>65</v>
       </c>
       <c r="D488" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>9</v>
       </c>
@@ -6969,10 +7004,10 @@
         <v>114</v>
       </c>
       <c r="D489" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>9</v>
       </c>
@@ -6980,10 +7015,10 @@
         <v>60</v>
       </c>
       <c r="D490" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>9</v>
       </c>
@@ -6991,10 +7026,10 @@
         <v>66</v>
       </c>
       <c r="D491" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>9</v>
       </c>
@@ -7002,10 +7037,10 @@
         <v>115</v>
       </c>
       <c r="D492" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>9</v>
       </c>
@@ -7013,10 +7048,10 @@
         <v>61</v>
       </c>
       <c r="D493" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>9</v>
       </c>
@@ -7024,10 +7059,10 @@
         <v>67</v>
       </c>
       <c r="D494" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="495" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>10</v>
       </c>
@@ -7038,7 +7073,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>10</v>
       </c>
@@ -7046,7 +7081,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>10</v>
       </c>
@@ -7054,7 +7089,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>10</v>
       </c>
@@ -7062,7 +7097,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>10</v>
       </c>
@@ -7070,7 +7105,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>10</v>
       </c>
@@ -7078,7 +7113,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>10</v>
       </c>
@@ -7086,7 +7121,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>10</v>
       </c>
@@ -7094,7 +7129,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>10</v>
       </c>
@@ -7102,7 +7137,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>10</v>
       </c>
@@ -7110,7 +7145,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>10</v>
       </c>
@@ -7118,7 +7153,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>10</v>
       </c>
@@ -7126,7 +7161,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>10</v>
       </c>
@@ -7134,7 +7169,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>10</v>
       </c>
@@ -7142,7 +7177,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>10</v>
       </c>
@@ -7150,7 +7185,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>10</v>
       </c>
@@ -7158,7 +7193,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>10</v>
       </c>
@@ -7166,7 +7201,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>10</v>
       </c>
@@ -7177,7 +7212,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>10</v>
       </c>
@@ -7185,7 +7220,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>10</v>
       </c>
@@ -7193,7 +7228,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>10</v>
       </c>
@@ -7201,7 +7236,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>10</v>
       </c>
@@ -7209,7 +7244,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>10</v>
       </c>
@@ -7217,7 +7252,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>10</v>
       </c>
@@ -7225,7 +7260,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>10</v>
       </c>
@@ -7233,7 +7268,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>10</v>
       </c>
@@ -7241,7 +7276,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>10</v>
       </c>
@@ -7249,7 +7284,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>10</v>
       </c>
@@ -7257,7 +7292,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>10</v>
       </c>
@@ -7265,7 +7300,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>10</v>
       </c>
@@ -7273,7 +7308,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>10</v>
       </c>
@@ -7281,7 +7316,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>10</v>
       </c>
@@ -7289,7 +7324,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>10</v>
       </c>
@@ -7297,7 +7332,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>10</v>
       </c>
@@ -7305,7 +7340,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>11</v>
       </c>
@@ -7313,7 +7348,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>11</v>
       </c>
@@ -7321,7 +7356,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>11</v>
       </c>
@@ -7329,7 +7364,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>11</v>
       </c>
@@ -7337,7 +7372,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>11</v>
       </c>
@@ -7345,7 +7380,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>11</v>
       </c>
@@ -7353,7 +7388,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>11</v>
       </c>
@@ -7361,7 +7396,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>11</v>
       </c>
@@ -7369,7 +7404,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>11</v>
       </c>
@@ -7377,7 +7412,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>11</v>
       </c>
@@ -7385,7 +7420,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>11</v>
       </c>
@@ -7393,7 +7428,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>11</v>
       </c>
@@ -7401,7 +7436,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>11</v>
       </c>
@@ -7409,7 +7444,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>11</v>
       </c>
@@ -7417,7 +7452,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>11</v>
       </c>
@@ -7425,7 +7460,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>11</v>
       </c>
@@ -7433,7 +7468,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>11</v>
       </c>
@@ -7441,7 +7476,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>11</v>
       </c>
@@ -7449,7 +7484,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>11</v>
       </c>
@@ -7457,7 +7492,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>11</v>
       </c>
@@ -7465,7 +7500,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>11</v>
       </c>
@@ -7473,7 +7508,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>11</v>
       </c>
@@ -7481,7 +7516,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>11</v>
       </c>
@@ -7489,7 +7524,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>11</v>
       </c>
@@ -7497,7 +7532,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>11</v>
       </c>
@@ -7505,7 +7540,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>11</v>
       </c>
@@ -7513,7 +7548,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>11</v>
       </c>
@@ -7521,7 +7556,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>11</v>
       </c>
@@ -7529,7 +7564,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>11</v>
       </c>
@@ -7537,7 +7572,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>11</v>
       </c>
@@ -7545,7 +7580,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>11</v>
       </c>
@@ -7553,7 +7588,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>11</v>
       </c>
@@ -7561,7 +7596,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>11</v>
       </c>
@@ -7569,7 +7604,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>11</v>
       </c>
@@ -7577,7 +7612,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>11</v>
       </c>
@@ -7585,7 +7620,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>11</v>
       </c>
@@ -7593,7 +7628,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>11</v>
       </c>
@@ -7601,7 +7636,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>11</v>
       </c>
@@ -7609,7 +7644,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>11</v>
       </c>
@@ -7617,7 +7652,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>11</v>
       </c>
@@ -7625,7 +7660,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>11</v>
       </c>
@@ -7633,7 +7668,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>11</v>
       </c>
@@ -7641,7 +7676,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>11</v>
       </c>
@@ -7649,7 +7684,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>11</v>
       </c>
@@ -7657,7 +7692,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>11</v>
       </c>
@@ -7665,7 +7700,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>11</v>
       </c>
@@ -7673,7 +7708,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>11</v>
       </c>
@@ -7681,7 +7716,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>12</v>
       </c>
@@ -7689,7 +7724,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>12</v>
       </c>
@@ -7697,7 +7732,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>12</v>
       </c>
@@ -7705,7 +7740,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>12</v>
       </c>
@@ -7713,7 +7748,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>12</v>
       </c>
@@ -7721,7 +7756,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>12</v>
       </c>
@@ -7729,7 +7764,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>12</v>
       </c>
@@ -7737,7 +7772,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>12</v>
       </c>
@@ -7745,7 +7780,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>12</v>
       </c>
@@ -7753,7 +7788,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>12</v>
       </c>
@@ -7761,7 +7796,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>12</v>
       </c>
@@ -7769,7 +7804,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>12</v>
       </c>
@@ -7777,7 +7812,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>12</v>
       </c>
@@ -7785,7 +7820,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>12</v>
       </c>
@@ -7793,7 +7828,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>12</v>
       </c>
@@ -7801,7 +7836,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>12</v>
       </c>
@@ -7809,7 +7844,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>12</v>
       </c>
@@ -7817,7 +7852,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>12</v>
       </c>
@@ -7825,7 +7860,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>12</v>
       </c>
@@ -7833,7 +7868,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>12</v>
       </c>
@@ -7841,7 +7876,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>12</v>
       </c>
@@ -7849,7 +7884,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>12</v>
       </c>
@@ -7857,7 +7892,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>12</v>
       </c>
@@ -7865,7 +7900,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>12</v>
       </c>
@@ -7873,7 +7908,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>12</v>
       </c>
@@ -7881,7 +7916,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>12</v>
       </c>
@@ -7889,7 +7924,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>12</v>
       </c>
@@ -7897,7 +7932,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>12</v>
       </c>
@@ -7905,7 +7940,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>12</v>
       </c>
@@ -7913,7 +7948,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>12</v>
       </c>
@@ -7921,7 +7956,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>12</v>
       </c>
@@ -7929,7 +7964,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>12</v>
       </c>
@@ -7937,7 +7972,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>12</v>
       </c>
@@ -7945,7 +7980,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>12</v>
       </c>
@@ -7953,7 +7988,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>12</v>
       </c>
@@ -7961,7 +7996,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>12</v>
       </c>
@@ -7969,7 +8004,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>12</v>
       </c>
@@ -7977,7 +8012,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>12</v>
       </c>
@@ -7985,7 +8020,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>12</v>
       </c>
@@ -7993,7 +8028,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>12</v>
       </c>
@@ -8001,7 +8036,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>12</v>
       </c>
@@ -8009,7 +8044,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>12</v>
       </c>
@@ -8018,7 +8053,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G617" xr:uid="{1B2AA487-B4BC-419E-AB09-1B94703EE3B6}"/>
+  <autoFilter ref="A1:G617" xr:uid="{1B2AA487-B4BC-419E-AB09-1B94703EE3B6}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="INC1"/>
+        <filter val="INC2"/>
+        <filter val="INC3"/>
+        <filter val="INC4"/>
+        <filter val="INC5"/>
+        <filter val="INC6"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8031,16 +8077,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7650B7-DDE2-4EF7-A90B-AC356386127C}">
+  <sheetPr codeName="Sheet3" filterMode="1"/>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="2" max="2" width="68.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -8074,117 +8121,349 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>92</v>
+      </c>
+      <c r="B3" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>151</v>
       </c>
+      <c r="B4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D4" t="s">
+        <v>328</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>314</v>
+        <v>299</v>
+      </c>
+      <c r="B5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D5" t="s">
+        <v>328</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>317</v>
+        <v>302</v>
+      </c>
+      <c r="B6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" t="s">
+        <v>329</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>315</v>
+        <v>300</v>
+      </c>
+      <c r="B7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D7" t="s">
+        <v>325</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>316</v>
+        <v>301</v>
+      </c>
+      <c r="B8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="D8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B9" t="s">
-        <v>319</v>
+        <v>309</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D9" t="s">
+        <v>328</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="B10" t="s">
-        <v>320</v>
+        <v>305</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" t="s">
+        <v>325</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B11" t="s">
-        <v>321</v>
+        <v>303</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="D11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>83</v>
       </c>
+      <c r="B12" t="s">
+        <v>315</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D12" t="s">
+        <v>328</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>313</v>
+        <v>298</v>
+      </c>
+      <c r="B13" t="s">
+        <v>306</v>
+      </c>
+      <c r="D13" t="s">
+        <v>325</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>318</v>
+        <v>307</v>
+      </c>
+      <c r="B14" t="s">
+        <v>308</v>
+      </c>
+      <c r="D14" t="s">
+        <v>325</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="B15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D15" t="s">
+        <v>328</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>94</v>
       </c>
+      <c r="B20" t="s">
+        <v>322</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{3F7650B7-DDE2-4EF7-A90B-AC356386127C}">
+  <autoFilter ref="A1:H20" xr:uid="{3F7650B7-DDE2-4EF7-A90B-AC356386127C}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="HOSP"/>
+        <filter val="HOSP_CODE"/>
+        <filter val="HOSP_DAT"/>
+        <filter val="HOSP_ICD9"/>
+        <filter val="HOSP_N"/>
+        <filter val="ILL"/>
+        <filter val="ILL_ICD9"/>
+        <filter val="ILL_N"/>
+        <filter val="INJ"/>
+        <filter val="INJ_ICD9"/>
+        <filter val="INJ_ICD9_SUP"/>
+        <filter val="INJ_N"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H21">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K000000 UWA Document (Public)&amp;1#_x000D_</oddHeader>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 This is a UWA Official document authorised or intended for public access.</oddFooter>

--- a/docs/questionnaires.xlsx
+++ b/docs/questionnaires.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\drive.irds.uwa.edu.au\SPGH-RAINEDATA-001\Data checking\Work folder Data Officer - Matt\0 WIP\Injuries and Incidents\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577E7B71-A96F-4F1C-BE2F-69A4D47560BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F08C7C9-FC28-4004-8C27-57AFCAA6DF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Outline" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Harmonised" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Harmonised!$A$1:$H$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Harmonised!$A$1:$G$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$1:$G$617</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="332">
   <si>
     <t>G201</t>
   </si>
@@ -674,9 +674,6 @@
     <t>Has your child had any accidents or injuries since the last follow-up at five to six years of age which required you to take him/her to a doctor (GP), hospital, or clinic?</t>
   </si>
   <si>
-    <t>Comments</t>
-  </si>
-  <si>
     <t>ILL_ICD9_1</t>
   </si>
   <si>
@@ -1022,12 +1019,6 @@
     <t>String</t>
   </si>
   <si>
-    <t>Nominal</t>
-  </si>
-  <si>
-    <t>Scale</t>
-  </si>
-  <si>
     <t>Numeric</t>
   </si>
   <si>
@@ -1041,6 +1032,12 @@
   </si>
   <si>
     <t>-99="Missing";-88="N/A";0="Same visit as previous injury"</t>
+  </si>
+  <si>
+    <t>nominal</t>
+  </si>
+  <si>
+    <t>scale</t>
   </si>
 </sst>
 </file>
@@ -1541,18 +1538,18 @@
   <sheetPr codeName="Sheet2" filterMode="1">
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:G617"/>
+  <dimension ref="A1:G620"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B622" sqref="B622"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="102.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="102.85546875" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
     <col min="6" max="6" width="32.85546875" style="1" customWidth="1"/>
@@ -1582,7 +1579,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1593,10 +1590,10 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1604,10 +1601,10 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1615,10 +1612,10 @@
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1626,10 +1623,10 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1637,10 +1634,10 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1648,10 +1645,10 @@
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1659,10 +1656,10 @@
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1670,10 +1667,10 @@
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1681,10 +1678,10 @@
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1692,10 +1689,10 @@
         <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1703,10 +1700,10 @@
         <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1714,10 +1711,10 @@
         <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1725,7 +1722,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1733,10 +1730,10 @@
         <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1744,10 +1741,10 @@
         <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1755,10 +1752,10 @@
         <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1766,10 +1763,10 @@
         <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1777,10 +1774,10 @@
         <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1788,10 +1785,10 @@
         <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1799,10 +1796,10 @@
         <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1810,10 +1807,10 @@
         <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -1821,10 +1818,10 @@
         <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -1832,10 +1829,10 @@
         <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1843,10 +1840,10 @@
         <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -1854,10 +1851,10 @@
         <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -1868,10 +1865,10 @@
         <v>75</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -1879,10 +1876,10 @@
         <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -1890,10 +1887,10 @@
         <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -1901,10 +1898,10 @@
         <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -1920,7 +1917,7 @@
         <v>51</v>
       </c>
       <c r="D32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1931,7 +1928,7 @@
         <v>52</v>
       </c>
       <c r="D33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1942,7 +1939,7 @@
         <v>53</v>
       </c>
       <c r="D34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1953,7 +1950,7 @@
         <v>54</v>
       </c>
       <c r="D35" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1964,7 +1961,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -1975,10 +1972,10 @@
         <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -1986,10 +1983,10 @@
         <v>58</v>
       </c>
       <c r="D38" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -1997,10 +1994,10 @@
         <v>59</v>
       </c>
       <c r="D39" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -2008,10 +2005,10 @@
         <v>60</v>
       </c>
       <c r="D40" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -2019,10 +2016,10 @@
         <v>61</v>
       </c>
       <c r="D41" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -2030,10 +2027,10 @@
         <v>62</v>
       </c>
       <c r="D42" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -2041,10 +2038,10 @@
         <v>63</v>
       </c>
       <c r="D43" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -2052,10 +2049,10 @@
         <v>64</v>
       </c>
       <c r="D44" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -2063,10 +2060,10 @@
         <v>65</v>
       </c>
       <c r="D45" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -2074,10 +2071,10 @@
         <v>66</v>
       </c>
       <c r="D46" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -2085,10 +2082,10 @@
         <v>67</v>
       </c>
       <c r="D47" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -2096,10 +2093,10 @@
         <v>68</v>
       </c>
       <c r="D48" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -2107,10 +2104,10 @@
         <v>69</v>
       </c>
       <c r="D49" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -2118,10 +2115,10 @@
         <v>70</v>
       </c>
       <c r="D50" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -2129,10 +2126,10 @@
         <v>71</v>
       </c>
       <c r="D51" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -2140,10 +2137,10 @@
         <v>72</v>
       </c>
       <c r="D52" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -2151,10 +2148,10 @@
         <v>73</v>
       </c>
       <c r="D53" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -2162,7 +2159,7 @@
         <v>74</v>
       </c>
       <c r="D54" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -2176,7 +2173,7 @@
         <v>85</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2187,7 +2184,7 @@
         <v>26</v>
       </c>
       <c r="D56" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2198,7 +2195,7 @@
         <v>27</v>
       </c>
       <c r="D57" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2209,7 +2206,7 @@
         <v>28</v>
       </c>
       <c r="D58" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2220,7 +2217,7 @@
         <v>29</v>
       </c>
       <c r="D59" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2231,7 +2228,7 @@
         <v>30</v>
       </c>
       <c r="D60" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2242,7 +2239,7 @@
         <v>31</v>
       </c>
       <c r="D61" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2253,7 +2250,7 @@
         <v>32</v>
       </c>
       <c r="D62" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2264,7 +2261,7 @@
         <v>33</v>
       </c>
       <c r="D63" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2275,7 +2272,7 @@
         <v>34</v>
       </c>
       <c r="D64" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2286,7 +2283,7 @@
         <v>35</v>
       </c>
       <c r="D65" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2297,7 +2294,7 @@
         <v>36</v>
       </c>
       <c r="D66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2308,7 +2305,7 @@
         <v>37</v>
       </c>
       <c r="D67" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2319,7 +2316,7 @@
         <v>39</v>
       </c>
       <c r="D68" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2330,7 +2327,7 @@
         <v>40</v>
       </c>
       <c r="D69" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2341,7 +2338,7 @@
         <v>41</v>
       </c>
       <c r="D70" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2352,7 +2349,7 @@
         <v>42</v>
       </c>
       <c r="D71" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2363,7 +2360,7 @@
         <v>43</v>
       </c>
       <c r="D72" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2374,7 +2371,7 @@
         <v>44</v>
       </c>
       <c r="D73" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2385,7 +2382,7 @@
         <v>45</v>
       </c>
       <c r="D74" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2396,7 +2393,7 @@
         <v>46</v>
       </c>
       <c r="D75" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2407,7 +2404,7 @@
         <v>47</v>
       </c>
       <c r="D76" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2418,7 +2415,7 @@
         <v>48</v>
       </c>
       <c r="D77" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2429,7 +2426,7 @@
         <v>49</v>
       </c>
       <c r="D78" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2440,7 +2437,7 @@
         <v>50</v>
       </c>
       <c r="D79" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -2465,7 +2462,7 @@
         <v>77</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2476,7 +2473,7 @@
         <v>78</v>
       </c>
       <c r="D82" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2487,10 +2484,10 @@
         <v>79</v>
       </c>
       <c r="D83" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>2</v>
       </c>
@@ -2498,10 +2495,10 @@
         <v>51</v>
       </c>
       <c r="D84" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>2</v>
       </c>
@@ -2509,10 +2506,10 @@
         <v>52</v>
       </c>
       <c r="D85" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>2</v>
       </c>
@@ -2520,7 +2517,7 @@
         <v>53</v>
       </c>
       <c r="D86" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2545,7 +2542,7 @@
         <v>57</v>
       </c>
       <c r="D88" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2556,7 +2553,7 @@
         <v>58</v>
       </c>
       <c r="D89" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2567,7 +2564,7 @@
         <v>59</v>
       </c>
       <c r="D90" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2578,7 +2575,7 @@
         <v>60</v>
       </c>
       <c r="D91" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2589,7 +2586,7 @@
         <v>61</v>
       </c>
       <c r="D92" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2600,7 +2597,7 @@
         <v>69</v>
       </c>
       <c r="D93" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2611,7 +2608,7 @@
         <v>70</v>
       </c>
       <c r="D94" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2622,7 +2619,7 @@
         <v>71</v>
       </c>
       <c r="D95" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2633,7 +2630,7 @@
         <v>72</v>
       </c>
       <c r="D96" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2644,7 +2641,7 @@
         <v>73</v>
       </c>
       <c r="D97" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2655,7 +2652,7 @@
         <v>63</v>
       </c>
       <c r="D98" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2666,7 +2663,7 @@
         <v>64</v>
       </c>
       <c r="D99" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2677,7 +2674,7 @@
         <v>65</v>
       </c>
       <c r="D100" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2688,7 +2685,7 @@
         <v>66</v>
       </c>
       <c r="D101" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2699,7 +2696,7 @@
         <v>67</v>
       </c>
       <c r="D102" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -2713,7 +2710,7 @@
         <v>85</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2724,7 +2721,7 @@
         <v>26</v>
       </c>
       <c r="D104" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2735,7 +2732,7 @@
         <v>27</v>
       </c>
       <c r="D105" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2746,7 +2743,7 @@
         <v>28</v>
       </c>
       <c r="D106" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2757,7 +2754,7 @@
         <v>29</v>
       </c>
       <c r="D107" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2768,7 +2765,7 @@
         <v>30</v>
       </c>
       <c r="D108" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2779,7 +2776,7 @@
         <v>31</v>
       </c>
       <c r="D109" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2790,7 +2787,7 @@
         <v>32</v>
       </c>
       <c r="D110" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2801,7 +2798,7 @@
         <v>33</v>
       </c>
       <c r="D111" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2812,7 +2809,7 @@
         <v>34</v>
       </c>
       <c r="D112" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2823,7 +2820,7 @@
         <v>35</v>
       </c>
       <c r="D113" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2834,7 +2831,7 @@
         <v>36</v>
       </c>
       <c r="D114" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2845,7 +2842,7 @@
         <v>37</v>
       </c>
       <c r="D115" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2856,7 +2853,7 @@
         <v>39</v>
       </c>
       <c r="D116" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2867,7 +2864,7 @@
         <v>40</v>
       </c>
       <c r="D117" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2878,7 +2875,7 @@
         <v>41</v>
       </c>
       <c r="D118" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2889,7 +2886,7 @@
         <v>42</v>
       </c>
       <c r="D119" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2900,7 +2897,7 @@
         <v>43</v>
       </c>
       <c r="D120" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2911,7 +2908,7 @@
         <v>44</v>
       </c>
       <c r="D121" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2922,7 +2919,7 @@
         <v>45</v>
       </c>
       <c r="D122" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2933,7 +2930,7 @@
         <v>46</v>
       </c>
       <c r="D123" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2944,7 +2941,7 @@
         <v>47</v>
       </c>
       <c r="D124" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2955,7 +2952,7 @@
         <v>48</v>
       </c>
       <c r="D125" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2966,7 +2963,7 @@
         <v>49</v>
       </c>
       <c r="D126" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2977,7 +2974,7 @@
         <v>50</v>
       </c>
       <c r="D127" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3100,7 +3097,7 @@
         <v>77</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3111,7 +3108,7 @@
         <v>78</v>
       </c>
       <c r="D137" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3122,7 +3119,7 @@
         <v>79</v>
       </c>
       <c r="D138" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3133,10 +3130,10 @@
         <v>80</v>
       </c>
       <c r="D139" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>3</v>
       </c>
@@ -3144,10 +3141,10 @@
         <v>51</v>
       </c>
       <c r="D140" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>3</v>
       </c>
@@ -3155,10 +3152,10 @@
         <v>52</v>
       </c>
       <c r="D141" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>3</v>
       </c>
@@ -3166,10 +3163,10 @@
         <v>53</v>
       </c>
       <c r="D142" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>3</v>
       </c>
@@ -3177,7 +3174,7 @@
         <v>54</v>
       </c>
       <c r="D143" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3202,7 +3199,7 @@
         <v>57</v>
       </c>
       <c r="D145" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3213,7 +3210,7 @@
         <v>58</v>
       </c>
       <c r="D146" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3224,7 +3221,7 @@
         <v>59</v>
       </c>
       <c r="D147" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3235,7 +3232,7 @@
         <v>60</v>
       </c>
       <c r="D148" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3246,7 +3243,7 @@
         <v>61</v>
       </c>
       <c r="D149" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3257,7 +3254,7 @@
         <v>62</v>
       </c>
       <c r="D150" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3268,7 +3265,7 @@
         <v>69</v>
       </c>
       <c r="D151" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3279,7 +3276,7 @@
         <v>70</v>
       </c>
       <c r="D152" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3290,7 +3287,7 @@
         <v>71</v>
       </c>
       <c r="D153" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3301,7 +3298,7 @@
         <v>72</v>
       </c>
       <c r="D154" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3312,7 +3309,7 @@
         <v>73</v>
       </c>
       <c r="D155" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3323,7 +3320,7 @@
         <v>74</v>
       </c>
       <c r="D156" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3334,7 +3331,7 @@
         <v>63</v>
       </c>
       <c r="D157" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3345,7 +3342,7 @@
         <v>64</v>
       </c>
       <c r="D158" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3356,7 +3353,7 @@
         <v>65</v>
       </c>
       <c r="D159" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3367,7 +3364,7 @@
         <v>66</v>
       </c>
       <c r="D160" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3378,7 +3375,7 @@
         <v>67</v>
       </c>
       <c r="D161" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3389,7 +3386,7 @@
         <v>68</v>
       </c>
       <c r="D162" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -3403,7 +3400,7 @@
         <v>99</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3414,7 +3411,7 @@
         <v>26</v>
       </c>
       <c r="D164" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G164" s="1"/>
     </row>
@@ -3426,7 +3423,7 @@
         <v>27</v>
       </c>
       <c r="D165" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G165" s="1"/>
     </row>
@@ -3438,7 +3435,7 @@
         <v>28</v>
       </c>
       <c r="D166" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3449,7 +3446,7 @@
         <v>29</v>
       </c>
       <c r="D167" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3460,7 +3457,7 @@
         <v>30</v>
       </c>
       <c r="D168" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3471,7 +3468,7 @@
         <v>31</v>
       </c>
       <c r="D169" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3482,7 +3479,7 @@
         <v>32</v>
       </c>
       <c r="D170" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3493,7 +3490,7 @@
         <v>33</v>
       </c>
       <c r="D171" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3504,7 +3501,7 @@
         <v>34</v>
       </c>
       <c r="D172" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3515,7 +3512,7 @@
         <v>35</v>
       </c>
       <c r="D173" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3526,7 +3523,7 @@
         <v>36</v>
       </c>
       <c r="D174" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3537,7 +3534,7 @@
         <v>37</v>
       </c>
       <c r="D175" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3548,7 +3545,7 @@
         <v>100</v>
       </c>
       <c r="D176" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3559,7 +3556,7 @@
         <v>101</v>
       </c>
       <c r="D177" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3570,7 +3567,7 @@
         <v>102</v>
       </c>
       <c r="D178" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3581,7 +3578,7 @@
         <v>39</v>
       </c>
       <c r="D179" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3592,7 +3589,7 @@
         <v>40</v>
       </c>
       <c r="D180" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3603,7 +3600,7 @@
         <v>41</v>
       </c>
       <c r="D181" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3614,7 +3611,7 @@
         <v>42</v>
       </c>
       <c r="D182" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3625,7 +3622,7 @@
         <v>43</v>
       </c>
       <c r="D183" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3636,7 +3633,7 @@
         <v>44</v>
       </c>
       <c r="D184" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3647,7 +3644,7 @@
         <v>45</v>
       </c>
       <c r="D185" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3658,7 +3655,7 @@
         <v>46</v>
       </c>
       <c r="D186" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3669,7 +3666,7 @@
         <v>47</v>
       </c>
       <c r="D187" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3680,7 +3677,7 @@
         <v>48</v>
       </c>
       <c r="D188" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3691,7 +3688,7 @@
         <v>49</v>
       </c>
       <c r="D189" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3702,7 +3699,7 @@
         <v>50</v>
       </c>
       <c r="D190" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3713,7 +3710,7 @@
         <v>103</v>
       </c>
       <c r="D191" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3724,7 +3721,7 @@
         <v>104</v>
       </c>
       <c r="D192" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3735,7 +3732,7 @@
         <v>105</v>
       </c>
       <c r="D193" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3754,7 +3751,7 @@
         <v>83</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>83</v>
@@ -3768,7 +3765,7 @@
         <v>77</v>
       </c>
       <c r="D196" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3779,7 +3776,7 @@
         <v>78</v>
       </c>
       <c r="D197" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3790,7 +3787,7 @@
         <v>79</v>
       </c>
       <c r="D198" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3801,10 +3798,10 @@
         <v>80</v>
       </c>
       <c r="D199" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>4</v>
       </c>
@@ -3812,10 +3809,10 @@
         <v>51</v>
       </c>
       <c r="D200" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>4</v>
       </c>
@@ -3823,10 +3820,10 @@
         <v>52</v>
       </c>
       <c r="D201" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>4</v>
       </c>
@@ -3834,10 +3831,10 @@
         <v>53</v>
       </c>
       <c r="D202" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>4</v>
       </c>
@@ -3845,7 +3842,7 @@
         <v>54</v>
       </c>
       <c r="D203" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>107</v>
@@ -3880,7 +3877,7 @@
         <v>57</v>
       </c>
       <c r="D206" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G206" s="1"/>
     </row>
@@ -3892,7 +3889,7 @@
         <v>58</v>
       </c>
       <c r="D207" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3903,7 +3900,7 @@
         <v>59</v>
       </c>
       <c r="D208" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3914,7 +3911,7 @@
         <v>60</v>
       </c>
       <c r="D209" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3925,7 +3922,7 @@
         <v>61</v>
       </c>
       <c r="D210" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3936,7 +3933,7 @@
         <v>62</v>
       </c>
       <c r="D211" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3947,7 +3944,7 @@
         <v>109</v>
       </c>
       <c r="D212" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3958,7 +3955,7 @@
         <v>110</v>
       </c>
       <c r="D213" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3969,7 +3966,7 @@
         <v>111</v>
       </c>
       <c r="D214" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3980,7 +3977,7 @@
         <v>112</v>
       </c>
       <c r="D215" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3991,7 +3988,7 @@
         <v>113</v>
       </c>
       <c r="D216" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4002,7 +3999,7 @@
         <v>114</v>
       </c>
       <c r="D217" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4013,7 +4010,7 @@
         <v>115</v>
       </c>
       <c r="D218" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4024,7 +4021,7 @@
         <v>116</v>
       </c>
       <c r="D219" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4035,7 +4032,7 @@
         <v>117</v>
       </c>
       <c r="D220" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4046,7 +4043,7 @@
         <v>118</v>
       </c>
       <c r="D221" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4057,7 +4054,7 @@
         <v>69</v>
       </c>
       <c r="D222" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4068,7 +4065,7 @@
         <v>70</v>
       </c>
       <c r="D223" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4079,7 +4076,7 @@
         <v>71</v>
       </c>
       <c r="D224" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4090,7 +4087,7 @@
         <v>72</v>
       </c>
       <c r="D225" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4101,7 +4098,7 @@
         <v>73</v>
       </c>
       <c r="D226" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4112,7 +4109,7 @@
         <v>74</v>
       </c>
       <c r="D227" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4123,7 +4120,7 @@
         <v>119</v>
       </c>
       <c r="D228" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4134,7 +4131,7 @@
         <v>120</v>
       </c>
       <c r="D229" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4145,7 +4142,7 @@
         <v>63</v>
       </c>
       <c r="D230" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4156,7 +4153,7 @@
         <v>64</v>
       </c>
       <c r="D231" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4167,7 +4164,7 @@
         <v>65</v>
       </c>
       <c r="D232" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4178,7 +4175,7 @@
         <v>66</v>
       </c>
       <c r="D233" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4189,7 +4186,7 @@
         <v>67</v>
       </c>
       <c r="D234" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4200,7 +4197,7 @@
         <v>68</v>
       </c>
       <c r="D235" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4211,7 +4208,7 @@
         <v>121</v>
       </c>
       <c r="D236" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4222,7 +4219,7 @@
         <v>122</v>
       </c>
       <c r="D237" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4357,7 +4354,7 @@
         <v>77</v>
       </c>
       <c r="D250" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -4368,7 +4365,7 @@
         <v>78</v>
       </c>
       <c r="D251" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -4379,7 +4376,7 @@
         <v>79</v>
       </c>
       <c r="D252" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -4390,7 +4387,7 @@
         <v>80</v>
       </c>
       <c r="D253" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -4401,7 +4398,7 @@
         <v>81</v>
       </c>
       <c r="D254" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -4412,10 +4409,10 @@
         <v>127</v>
       </c>
       <c r="D255" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>5</v>
       </c>
@@ -4423,10 +4420,10 @@
         <v>51</v>
       </c>
       <c r="D256" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>5</v>
       </c>
@@ -4434,10 +4431,10 @@
         <v>52</v>
       </c>
       <c r="D257" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>5</v>
       </c>
@@ -4445,10 +4442,10 @@
         <v>53</v>
       </c>
       <c r="D258" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>5</v>
       </c>
@@ -4456,10 +4453,10 @@
         <v>54</v>
       </c>
       <c r="D259" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>5</v>
       </c>
@@ -4467,10 +4464,10 @@
         <v>55</v>
       </c>
       <c r="D260" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>5</v>
       </c>
@@ -4478,7 +4475,7 @@
         <v>56</v>
       </c>
       <c r="D261" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4503,7 +4500,7 @@
         <v>57</v>
       </c>
       <c r="D263" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4514,7 +4511,7 @@
         <v>58</v>
       </c>
       <c r="D264" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4525,7 +4522,7 @@
         <v>59</v>
       </c>
       <c r="D265" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4536,7 +4533,7 @@
         <v>60</v>
       </c>
       <c r="D266" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4547,7 +4544,7 @@
         <v>61</v>
       </c>
       <c r="D267" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4558,7 +4555,7 @@
         <v>62</v>
       </c>
       <c r="D268" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4569,7 +4566,7 @@
         <v>111</v>
       </c>
       <c r="D269" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4580,7 +4577,7 @@
         <v>112</v>
       </c>
       <c r="D270" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4591,7 +4588,7 @@
         <v>113</v>
       </c>
       <c r="D271" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4602,7 +4599,7 @@
         <v>114</v>
       </c>
       <c r="D272" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4613,7 +4610,7 @@
         <v>115</v>
       </c>
       <c r="D273" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4624,7 +4621,7 @@
         <v>116</v>
       </c>
       <c r="D274" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4635,7 +4632,7 @@
         <v>69</v>
       </c>
       <c r="D275" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4646,7 +4643,7 @@
         <v>70</v>
       </c>
       <c r="D276" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4657,7 +4654,7 @@
         <v>71</v>
       </c>
       <c r="D277" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4668,7 +4665,7 @@
         <v>72</v>
       </c>
       <c r="D278" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4679,7 +4676,7 @@
         <v>73</v>
       </c>
       <c r="D279" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4690,7 +4687,7 @@
         <v>74</v>
       </c>
       <c r="D280" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4701,7 +4698,7 @@
         <v>63</v>
       </c>
       <c r="D281" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4712,7 +4709,7 @@
         <v>64</v>
       </c>
       <c r="D282" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4723,7 +4720,7 @@
         <v>65</v>
       </c>
       <c r="D283" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4734,7 +4731,7 @@
         <v>66</v>
       </c>
       <c r="D284" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4745,7 +4742,7 @@
         <v>67</v>
       </c>
       <c r="D285" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4756,7 +4753,7 @@
         <v>68</v>
       </c>
       <c r="D286" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -4773,7 +4770,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>6</v>
       </c>
@@ -4781,10 +4778,10 @@
         <v>51</v>
       </c>
       <c r="D288" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>6</v>
       </c>
@@ -4792,10 +4789,10 @@
         <v>52</v>
       </c>
       <c r="D289" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>6</v>
       </c>
@@ -4803,10 +4800,10 @@
         <v>53</v>
       </c>
       <c r="D290" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>6</v>
       </c>
@@ -4814,7 +4811,7 @@
         <v>54</v>
       </c>
       <c r="D291" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4825,7 +4822,7 @@
         <v>77</v>
       </c>
       <c r="D292" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4836,7 +4833,7 @@
         <v>78</v>
       </c>
       <c r="D293" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4847,7 +4844,7 @@
         <v>79</v>
       </c>
       <c r="D294" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4858,7 +4855,7 @@
         <v>80</v>
       </c>
       <c r="D295" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4883,7 +4880,7 @@
         <v>111</v>
       </c>
       <c r="D297" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4894,7 +4891,7 @@
         <v>112</v>
       </c>
       <c r="D298" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4905,7 +4902,7 @@
         <v>113</v>
       </c>
       <c r="D299" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4916,7 +4913,7 @@
         <v>114</v>
       </c>
       <c r="D300" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4927,7 +4924,7 @@
         <v>115</v>
       </c>
       <c r="D301" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4938,7 +4935,7 @@
         <v>57</v>
       </c>
       <c r="D302" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4949,7 +4946,7 @@
         <v>58</v>
       </c>
       <c r="D303" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4960,7 +4957,7 @@
         <v>59</v>
       </c>
       <c r="D304" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4971,7 +4968,7 @@
         <v>60</v>
       </c>
       <c r="D305" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4982,7 +4979,7 @@
         <v>61</v>
       </c>
       <c r="D306" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4993,7 +4990,7 @@
         <v>62</v>
       </c>
       <c r="D307" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5004,7 +5001,7 @@
         <v>63</v>
       </c>
       <c r="D308" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5015,7 +5012,7 @@
         <v>64</v>
       </c>
       <c r="D309" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5026,7 +5023,7 @@
         <v>65</v>
       </c>
       <c r="D310" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5037,7 +5034,7 @@
         <v>66</v>
       </c>
       <c r="D311" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5048,7 +5045,7 @@
         <v>67</v>
       </c>
       <c r="D312" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5059,7 +5056,7 @@
         <v>68</v>
       </c>
       <c r="D313" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="314" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -5076,7 +5073,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>18</v>
       </c>
@@ -5084,10 +5081,10 @@
         <v>51</v>
       </c>
       <c r="D315" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>18</v>
       </c>
@@ -5095,10 +5092,10 @@
         <v>52</v>
       </c>
       <c r="D316" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>18</v>
       </c>
@@ -5106,10 +5103,10 @@
         <v>53</v>
       </c>
       <c r="D317" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>18</v>
       </c>
@@ -5117,10 +5114,10 @@
         <v>54</v>
       </c>
       <c r="D318" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>18</v>
       </c>
@@ -5128,10 +5125,10 @@
         <v>55</v>
       </c>
       <c r="D319" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>18</v>
       </c>
@@ -5139,7 +5136,7 @@
         <v>56</v>
       </c>
       <c r="D320" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5150,7 +5147,7 @@
         <v>77</v>
       </c>
       <c r="D321" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5161,7 +5158,7 @@
         <v>78</v>
       </c>
       <c r="D322" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5172,7 +5169,7 @@
         <v>79</v>
       </c>
       <c r="D323" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5183,7 +5180,7 @@
         <v>80</v>
       </c>
       <c r="D324" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5194,7 +5191,7 @@
         <v>81</v>
       </c>
       <c r="D325" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5205,7 +5202,7 @@
         <v>127</v>
       </c>
       <c r="D326" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5230,7 +5227,7 @@
         <v>63</v>
       </c>
       <c r="D328" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5241,7 +5238,7 @@
         <v>64</v>
       </c>
       <c r="D329" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5252,7 +5249,7 @@
         <v>65</v>
       </c>
       <c r="D330" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5263,7 +5260,7 @@
         <v>66</v>
       </c>
       <c r="D331" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5274,7 +5271,7 @@
         <v>67</v>
       </c>
       <c r="D332" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5285,7 +5282,7 @@
         <v>68</v>
       </c>
       <c r="D333" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5296,7 +5293,7 @@
         <v>121</v>
       </c>
       <c r="D334" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5307,7 +5304,7 @@
         <v>122</v>
       </c>
       <c r="D335" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5318,7 +5315,7 @@
         <v>111</v>
       </c>
       <c r="D336" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5329,7 +5326,7 @@
         <v>112</v>
       </c>
       <c r="D337" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5340,7 +5337,7 @@
         <v>113</v>
       </c>
       <c r="D338" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5351,7 +5348,7 @@
         <v>114</v>
       </c>
       <c r="D339" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5362,7 +5359,7 @@
         <v>115</v>
       </c>
       <c r="D340" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5373,7 +5370,7 @@
         <v>116</v>
       </c>
       <c r="D341" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5384,7 +5381,7 @@
         <v>117</v>
       </c>
       <c r="D342" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5395,7 +5392,7 @@
         <v>118</v>
       </c>
       <c r="D343" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5406,7 +5403,7 @@
         <v>57</v>
       </c>
       <c r="D344" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5417,7 +5414,7 @@
         <v>58</v>
       </c>
       <c r="D345" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5428,7 +5425,7 @@
         <v>59</v>
       </c>
       <c r="D346" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5439,7 +5436,7 @@
         <v>60</v>
       </c>
       <c r="D347" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5450,7 +5447,7 @@
         <v>61</v>
       </c>
       <c r="D348" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5461,7 +5458,7 @@
         <v>62</v>
       </c>
       <c r="D349" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5472,7 +5469,7 @@
         <v>109</v>
       </c>
       <c r="D350" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5483,7 +5480,7 @@
         <v>110</v>
       </c>
       <c r="D351" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="352" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -5508,7 +5505,7 @@
         <v>77</v>
       </c>
       <c r="D353" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5519,7 +5516,7 @@
         <v>78</v>
       </c>
       <c r="D354" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5530,7 +5527,7 @@
         <v>79</v>
       </c>
       <c r="D355" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5541,7 +5538,7 @@
         <v>80</v>
       </c>
       <c r="D356" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5552,10 +5549,10 @@
         <v>81</v>
       </c>
       <c r="D357" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>7</v>
       </c>
@@ -5563,10 +5560,10 @@
         <v>51</v>
       </c>
       <c r="D358" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>7</v>
       </c>
@@ -5574,10 +5571,10 @@
         <v>52</v>
       </c>
       <c r="D359" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>7</v>
       </c>
@@ -5585,10 +5582,10 @@
         <v>53</v>
       </c>
       <c r="D360" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>7</v>
       </c>
@@ -5596,10 +5593,10 @@
         <v>54</v>
       </c>
       <c r="D361" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>7</v>
       </c>
@@ -5607,7 +5604,7 @@
         <v>55</v>
       </c>
       <c r="D362" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5632,7 +5629,7 @@
         <v>111</v>
       </c>
       <c r="D364" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5643,7 +5640,7 @@
         <v>57</v>
       </c>
       <c r="D365" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5654,7 +5651,7 @@
         <v>63</v>
       </c>
       <c r="D366" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5665,7 +5662,7 @@
         <v>112</v>
       </c>
       <c r="D367" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5676,7 +5673,7 @@
         <v>58</v>
       </c>
       <c r="D368" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5687,7 +5684,7 @@
         <v>64</v>
       </c>
       <c r="D369" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="370" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5698,7 +5695,7 @@
         <v>113</v>
       </c>
       <c r="D370" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="371" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5709,7 +5706,7 @@
         <v>59</v>
       </c>
       <c r="D371" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="372" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5720,7 +5717,7 @@
         <v>65</v>
       </c>
       <c r="D372" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5731,7 +5728,7 @@
         <v>114</v>
       </c>
       <c r="D373" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5742,7 +5739,7 @@
         <v>60</v>
       </c>
       <c r="D374" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5753,7 +5750,7 @@
         <v>66</v>
       </c>
       <c r="D375" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5764,7 +5761,7 @@
         <v>115</v>
       </c>
       <c r="D376" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5775,7 +5772,7 @@
         <v>61</v>
       </c>
       <c r="D377" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5786,7 +5783,7 @@
         <v>67</v>
       </c>
       <c r="D378" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5797,7 +5794,7 @@
         <v>116</v>
       </c>
       <c r="D379" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5808,7 +5805,7 @@
         <v>62</v>
       </c>
       <c r="D380" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5819,7 +5816,7 @@
         <v>68</v>
       </c>
       <c r="D381" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5830,7 +5827,7 @@
         <v>117</v>
       </c>
       <c r="D382" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5841,7 +5838,7 @@
         <v>109</v>
       </c>
       <c r="D383" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="384" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5852,7 +5849,7 @@
         <v>121</v>
       </c>
       <c r="D384" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="385" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5863,7 +5860,7 @@
         <v>118</v>
       </c>
       <c r="D385" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="386" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5874,7 +5871,7 @@
         <v>110</v>
       </c>
       <c r="D386" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="387" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5885,7 +5882,7 @@
         <v>122</v>
       </c>
       <c r="D387" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5896,7 +5893,7 @@
         <v>133</v>
       </c>
       <c r="D388" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5907,7 +5904,7 @@
         <v>134</v>
       </c>
       <c r="D389" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="390" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5918,7 +5915,7 @@
         <v>135</v>
       </c>
       <c r="D390" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="391" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5967,7 +5964,7 @@
         <v>77</v>
       </c>
       <c r="D395" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="396" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5978,7 +5975,7 @@
         <v>78</v>
       </c>
       <c r="D396" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5989,7 +5986,7 @@
         <v>79</v>
       </c>
       <c r="D397" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6000,7 +5997,7 @@
         <v>80</v>
       </c>
       <c r="D398" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6011,10 +6008,10 @@
         <v>81</v>
       </c>
       <c r="D399" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>17</v>
       </c>
@@ -6022,10 +6019,10 @@
         <v>51</v>
       </c>
       <c r="D400" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>17</v>
       </c>
@@ -6033,10 +6030,10 @@
         <v>52</v>
       </c>
       <c r="D401" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>17</v>
       </c>
@@ -6044,10 +6041,10 @@
         <v>53</v>
       </c>
       <c r="D402" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>17</v>
       </c>
@@ -6055,10 +6052,10 @@
         <v>54</v>
       </c>
       <c r="D403" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>17</v>
       </c>
@@ -6066,7 +6063,7 @@
         <v>55</v>
       </c>
       <c r="D404" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6088,7 +6085,7 @@
         <v>111</v>
       </c>
       <c r="D406" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6099,7 +6096,7 @@
         <v>57</v>
       </c>
       <c r="D407" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6110,7 +6107,7 @@
         <v>63</v>
       </c>
       <c r="D408" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6121,7 +6118,7 @@
         <v>112</v>
       </c>
       <c r="D409" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6132,7 +6129,7 @@
         <v>58</v>
       </c>
       <c r="D410" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6143,7 +6140,7 @@
         <v>64</v>
       </c>
       <c r="D411" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="412" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6154,7 +6151,7 @@
         <v>113</v>
       </c>
       <c r="D412" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="413" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6165,7 +6162,7 @@
         <v>59</v>
       </c>
       <c r="D413" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6176,7 +6173,7 @@
         <v>65</v>
       </c>
       <c r="D414" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6187,7 +6184,7 @@
         <v>114</v>
       </c>
       <c r="D415" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6198,7 +6195,7 @@
         <v>60</v>
       </c>
       <c r="D416" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6209,7 +6206,7 @@
         <v>66</v>
       </c>
       <c r="D417" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="418" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6220,7 +6217,7 @@
         <v>115</v>
       </c>
       <c r="D418" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="419" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6231,7 +6228,7 @@
         <v>61</v>
       </c>
       <c r="D419" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="420" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6242,7 +6239,7 @@
         <v>67</v>
       </c>
       <c r="D420" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="421" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6253,7 +6250,7 @@
         <v>116</v>
       </c>
       <c r="D421" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="422" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6264,7 +6261,7 @@
         <v>62</v>
       </c>
       <c r="D422" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6275,7 +6272,7 @@
         <v>68</v>
       </c>
       <c r="D423" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="424" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6286,7 +6283,7 @@
         <v>117</v>
       </c>
       <c r="D424" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="425" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6297,7 +6294,7 @@
         <v>109</v>
       </c>
       <c r="D425" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="426" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6308,7 +6305,7 @@
         <v>121</v>
       </c>
       <c r="D426" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="427" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6319,7 +6316,7 @@
         <v>118</v>
       </c>
       <c r="D427" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="428" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6330,7 +6327,7 @@
         <v>110</v>
       </c>
       <c r="D428" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="429" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6341,7 +6338,7 @@
         <v>122</v>
       </c>
       <c r="D429" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="430" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6352,7 +6349,7 @@
         <v>133</v>
       </c>
       <c r="D430" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="431" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6363,7 +6360,7 @@
         <v>134</v>
       </c>
       <c r="D431" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="432" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6374,7 +6371,7 @@
         <v>135</v>
       </c>
       <c r="D432" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="433" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6423,7 +6420,7 @@
         <v>77</v>
       </c>
       <c r="D437" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="438" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6434,7 +6431,7 @@
         <v>78</v>
       </c>
       <c r="D438" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6445,7 +6442,7 @@
         <v>79</v>
       </c>
       <c r="D439" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6456,7 +6453,7 @@
         <v>80</v>
       </c>
       <c r="D440" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="441" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6467,10 +6464,10 @@
         <v>81</v>
       </c>
       <c r="D441" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>8</v>
       </c>
@@ -6478,10 +6475,10 @@
         <v>51</v>
       </c>
       <c r="D442" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>8</v>
       </c>
@@ -6489,10 +6486,10 @@
         <v>52</v>
       </c>
       <c r="D443" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>8</v>
       </c>
@@ -6500,10 +6497,10 @@
         <v>53</v>
       </c>
       <c r="D444" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>8</v>
       </c>
@@ -6511,10 +6508,10 @@
         <v>54</v>
       </c>
       <c r="D445" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>8</v>
       </c>
@@ -6522,7 +6519,7 @@
         <v>55</v>
       </c>
       <c r="D446" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6547,7 +6544,7 @@
         <v>111</v>
       </c>
       <c r="D448" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="449" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6558,7 +6555,7 @@
         <v>57</v>
       </c>
       <c r="D449" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="450" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6569,7 +6566,7 @@
         <v>63</v>
       </c>
       <c r="D450" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="451" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6580,7 +6577,7 @@
         <v>112</v>
       </c>
       <c r="D451" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="452" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6591,7 +6588,7 @@
         <v>58</v>
       </c>
       <c r="D452" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="453" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6602,7 +6599,7 @@
         <v>64</v>
       </c>
       <c r="D453" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="454" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6613,7 +6610,7 @@
         <v>113</v>
       </c>
       <c r="D454" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="455" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6624,7 +6621,7 @@
         <v>59</v>
       </c>
       <c r="D455" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="456" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6635,7 +6632,7 @@
         <v>65</v>
       </c>
       <c r="D456" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="457" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6646,7 +6643,7 @@
         <v>114</v>
       </c>
       <c r="D457" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="458" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6657,7 +6654,7 @@
         <v>60</v>
       </c>
       <c r="D458" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6668,7 +6665,7 @@
         <v>66</v>
       </c>
       <c r="D459" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6679,7 +6676,7 @@
         <v>115</v>
       </c>
       <c r="D460" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6690,7 +6687,7 @@
         <v>61</v>
       </c>
       <c r="D461" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6701,7 +6698,7 @@
         <v>67</v>
       </c>
       <c r="D462" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="463" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -6726,7 +6723,7 @@
         <v>77</v>
       </c>
       <c r="D464" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="465" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6737,7 +6734,7 @@
         <v>78</v>
       </c>
       <c r="D465" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="466" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6748,7 +6745,7 @@
         <v>79</v>
       </c>
       <c r="D466" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="467" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6759,7 +6756,7 @@
         <v>80</v>
       </c>
       <c r="D467" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="468" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6770,10 +6767,10 @@
         <v>81</v>
       </c>
       <c r="D468" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>9</v>
       </c>
@@ -6781,10 +6778,10 @@
         <v>51</v>
       </c>
       <c r="D469" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>9</v>
       </c>
@@ -6792,10 +6789,10 @@
         <v>52</v>
       </c>
       <c r="D470" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>9</v>
       </c>
@@ -6803,10 +6800,10 @@
         <v>53</v>
       </c>
       <c r="D471" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>9</v>
       </c>
@@ -6814,10 +6811,10 @@
         <v>54</v>
       </c>
       <c r="D472" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>9</v>
       </c>
@@ -6825,7 +6822,7 @@
         <v>55</v>
       </c>
       <c r="D473" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="474" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6836,7 +6833,7 @@
         <v>144</v>
       </c>
       <c r="D474" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="475" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6847,7 +6844,7 @@
         <v>145</v>
       </c>
       <c r="D475" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="476" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6858,7 +6855,7 @@
         <v>146</v>
       </c>
       <c r="D476" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="477" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6869,7 +6866,7 @@
         <v>147</v>
       </c>
       <c r="D477" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="478" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6880,7 +6877,7 @@
         <v>148</v>
       </c>
       <c r="D478" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6905,7 +6902,7 @@
         <v>111</v>
       </c>
       <c r="D480" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="481" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6916,7 +6913,7 @@
         <v>57</v>
       </c>
       <c r="D481" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="482" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6927,7 +6924,7 @@
         <v>63</v>
       </c>
       <c r="D482" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="483" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6938,7 +6935,7 @@
         <v>112</v>
       </c>
       <c r="D483" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="484" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6949,7 +6946,7 @@
         <v>58</v>
       </c>
       <c r="D484" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="485" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6960,7 +6957,7 @@
         <v>64</v>
       </c>
       <c r="D485" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="486" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6971,7 +6968,7 @@
         <v>113</v>
       </c>
       <c r="D486" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="487" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6982,7 +6979,7 @@
         <v>59</v>
       </c>
       <c r="D487" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="488" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6993,7 +6990,7 @@
         <v>65</v>
       </c>
       <c r="D488" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="489" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -7004,7 +7001,7 @@
         <v>114</v>
       </c>
       <c r="D489" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="490" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -7015,7 +7012,7 @@
         <v>60</v>
       </c>
       <c r="D490" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="491" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -7026,7 +7023,7 @@
         <v>66</v>
       </c>
       <c r="D491" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="492" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -7037,7 +7034,7 @@
         <v>115</v>
       </c>
       <c r="D492" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="493" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -7048,7 +7045,7 @@
         <v>61</v>
       </c>
       <c r="D493" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="494" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -7059,7 +7056,7 @@
         <v>67</v>
       </c>
       <c r="D494" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="495" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -7980,7 +7977,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="609" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>12</v>
       </c>
@@ -7988,7 +7985,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="610" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>12</v>
       </c>
@@ -7996,7 +7993,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="611" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>12</v>
       </c>
@@ -8004,7 +8001,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="612" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>12</v>
       </c>
@@ -8012,7 +8009,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="613" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>12</v>
       </c>
@@ -8020,7 +8017,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="614" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>12</v>
       </c>
@@ -8028,7 +8025,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="615" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>12</v>
       </c>
@@ -8036,7 +8033,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="616" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>12</v>
       </c>
@@ -8044,7 +8041,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="617" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>12</v>
       </c>
@@ -8052,16 +8049,35 @@
         <v>198</v>
       </c>
     </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A618" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D618" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A619" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D619" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A620" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D620" t="s">
+        <v>151</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G617" xr:uid="{1B2AA487-B4BC-419E-AB09-1B94703EE3B6}">
-    <filterColumn colId="1">
+    <filterColumn colId="0">
       <filters>
-        <filter val="INC1"/>
-        <filter val="INC2"/>
-        <filter val="INC3"/>
-        <filter val="INC4"/>
-        <filter val="INC5"/>
-        <filter val="INC6"/>
+        <filter val="G201"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -8077,11 +8093,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7650B7-DDE2-4EF7-A90B-AC356386127C}">
-  <sheetPr codeName="Sheet3" filterMode="1"/>
-  <dimension ref="A1:H20"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8092,10 +8108,9 @@
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>202</v>
       </c>
@@ -8117,38 +8132,35 @@
       <c r="G1" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>151</v>
       </c>
       <c r="B4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -8157,21 +8169,21 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -8180,19 +8192,19 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E6">
         <v>12</v>
@@ -8201,41 +8213,41 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D8" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -8244,21 +8256,21 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D9" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -8267,42 +8279,42 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D11" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -8311,21 +8323,21 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D12" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -8334,61 +8346,61 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>306</v>
+      </c>
+      <c r="B14" t="s">
         <v>307</v>
       </c>
-      <c r="B14" t="s">
-        <v>308</v>
-      </c>
       <c r="D14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -8397,68 +8409,121 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>89</v>
       </c>
       <c r="B17" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>90</v>
       </c>
       <c r="B18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>93</v>
       </c>
       <c r="B19" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>94</v>
       </c>
       <c r="B20" t="s">
-        <v>322</v>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>264</v>
+      </c>
+      <c r="B21" t="s">
+        <v>313</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D21" t="s">
+        <v>325</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>225</v>
+      </c>
+      <c r="B22" t="s">
+        <v>302</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D22" t="s">
+        <v>325</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>240</v>
+      </c>
+      <c r="B23" t="s">
+        <v>303</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D23" t="s">
+        <v>325</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H20" xr:uid="{3F7650B7-DDE2-4EF7-A90B-AC356386127C}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="HOSP"/>
-        <filter val="HOSP_CODE"/>
-        <filter val="HOSP_DAT"/>
-        <filter val="HOSP_ICD9"/>
-        <filter val="HOSP_N"/>
-        <filter val="ILL"/>
-        <filter val="ILL_ICD9"/>
-        <filter val="ILL_N"/>
-        <filter val="INJ"/>
-        <filter val="INJ_ICD9"/>
-        <filter val="INJ_ICD9_SUP"/>
-        <filter val="INJ_N"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H21">
+  <autoFilter ref="A1:G23" xr:uid="{3F7650B7-DDE2-4EF7-A90B-AC356386127C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G21">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
